--- a/branches/ARVTreatment--FIG-58/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/ARVTreatment--FIG-58/StructureDefinition-hiv-arv-treatment.xlsx
@@ -9,14 +9,11 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$64</definedName>
-  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2351" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2349" uniqueCount="490">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T11:32:09+00:00</t>
+    <t>2023-02-28T14:52:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -425,33 +422,57 @@
     <t>CarePlan.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>CarePlan.extension:change-type</t>
+  </si>
+  <si>
+    <t>change-type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://openhie.org/fhir/hiv-cbs/StructureDefinition/art-change-type}
+</t>
+  </si>
+  <si>
+    <t>ART Change Type</t>
+  </si>
+  <si>
+    <t>A list of options to distinguish the ART between Initial, Switch and Substitute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>CarePlan.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>CarePlan.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -459,6 +480,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -972,6 +996,10 @@
     <t>Allows systems to prompt for performance of planned activities, and validate plans against best practice.</t>
   </si>
   <si>
+    <t>cpl-3:Provide a reference or detail, not both {detail.empty() or reference.empty()}
+ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
+  </si>
+  <si>
     <t>{no mapping
 NOTE: This is a list of contained Request-Event tuples!}</t>
   </si>
@@ -997,6 +1025,9 @@
     <t>CarePlan.activity.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
@@ -1129,19 +1160,6 @@
     <t>CarePlan.activity.detail.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>CarePlan.activity.detail.extension:artRegimenLine</t>
   </si>
   <si>
@@ -1158,10 +1176,6 @@
     <t>Therapeutic lines that are used to classify the patient's currently prescribed ARV regimen.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>CarePlan.activity.detail.modifierExtension</t>
   </si>
   <si>
@@ -1374,82 +1388,76 @@
     <t>Allows prompting for activities and detection of missed planned activities.</t>
   </si>
   <si>
+    <t>TQ1</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.detail.location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Location)
+</t>
+  </si>
+  <si>
+    <t>Where it should happen</t>
+  </si>
+  <si>
+    <t>Identifies the facility where the activity will occur; e.g. home, hospital, specific clinic, etc.</t>
+  </si>
+  <si>
+    <t>May reference a specific clinical location or may identify a type of location.</t>
+  </si>
+  <si>
+    <t>Helps in planning of activity.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=LOC].role</t>
+  </si>
+  <si>
+    <t>OBR-24(???!!)</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.detail.performer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|RelatedPerson|Patient|CareTeam|HealthcareService|Device)
+</t>
+  </si>
+  <si>
+    <t>Who will be responsible?</t>
+  </si>
+  <si>
+    <t>Identifies who's expected to be involved in the activity.</t>
+  </si>
+  <si>
+    <t>A performer MAY also be a participant in the care plan.</t>
+  </si>
+  <si>
+    <t>Request.performer</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=PFM]</t>
+  </si>
+  <si>
+    <t>PRT-5 : ( PRV-4 = (provider participations)); PRT-5 : ( PRV-4 = (non-provider person participations )) ; PRT-5 : ( PRV-4 = (patient non-subject of care) ) ; PRT-8</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.detail.product[x]</t>
+  </si>
+  <si>
+    <t>What is to be administered/supplied</t>
+  </si>
+  <si>
+    <t>Identifies the food, drug or other product to be consumed or supplied in the activity.</t>
+  </si>
+  <si>
+    <t>A product supplied or administered as part of a care plan activity.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
+  </si>
+  <si>
     <t xml:space="preserve">type:$this}
 </t>
-  </si>
-  <si>
-    <t>TQ1</t>
-  </si>
-  <si>
-    <t>CarePlan.activity.detail.scheduled[x]:scheduledPeriod</t>
-  </si>
-  <si>
-    <t>scheduledPeriod</t>
-  </si>
-  <si>
-    <t>CarePlan.activity.detail.location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Location)
-</t>
-  </si>
-  <si>
-    <t>Where it should happen</t>
-  </si>
-  <si>
-    <t>Identifies the facility where the activity will occur; e.g. home, hospital, specific clinic, etc.</t>
-  </si>
-  <si>
-    <t>May reference a specific clinical location or may identify a type of location.</t>
-  </si>
-  <si>
-    <t>Helps in planning of activity.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=LOC].role</t>
-  </si>
-  <si>
-    <t>OBR-24(???!!)</t>
-  </si>
-  <si>
-    <t>CarePlan.activity.detail.performer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|RelatedPerson|Patient|CareTeam|HealthcareService|Device)
-</t>
-  </si>
-  <si>
-    <t>Who will be responsible?</t>
-  </si>
-  <si>
-    <t>Identifies who's expected to be involved in the activity.</t>
-  </si>
-  <si>
-    <t>A performer MAY also be a participant in the care plan.</t>
-  </si>
-  <si>
-    <t>Request.performer</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=PFM]</t>
-  </si>
-  <si>
-    <t>PRT-5 : ( PRV-4 = (provider participations)); PRT-5 : ( PRV-4 = (non-provider person participations )) ; PRT-5 : ( PRV-4 = (patient non-subject of care) ) ; PRT-8</t>
-  </si>
-  <si>
-    <t>CarePlan.activity.detail.product[x]</t>
-  </si>
-  <si>
-    <t>What is to be administered/supplied</t>
-  </si>
-  <si>
-    <t>Identifies the food, drug or other product to be consumed or supplied in the activity.</t>
-  </si>
-  <si>
-    <t>A product supplied or administered as part of a care plan activity.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
   </si>
   <si>
     <t>closed</t>
@@ -1661,21 +1669,6 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="22"/>
-        <i val="true"/>
-      </font>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -2024,7 +2017,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" hidden="true">
+    <row r="2">
       <c r="A2" t="s" s="2">
         <v>30</v>
       </c>
@@ -2136,7 +2129,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" hidden="true">
+    <row r="3">
       <c r="A3" t="s" s="2">
         <v>86</v>
       </c>
@@ -2250,7 +2243,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" hidden="true">
+    <row r="4">
       <c r="A4" t="s" s="2">
         <v>94</v>
       </c>
@@ -2362,7 +2355,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" hidden="true">
+    <row r="5">
       <c r="A5" t="s" s="2">
         <v>100</v>
       </c>
@@ -2476,7 +2469,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" hidden="true">
+    <row r="6">
       <c r="A6" t="s" s="2">
         <v>106</v>
       </c>
@@ -2590,7 +2583,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>115</v>
       </c>
@@ -2704,7 +2697,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" hidden="true">
+    <row r="8">
       <c r="A8" t="s" s="2">
         <v>123</v>
       </c>
@@ -2818,7 +2811,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" hidden="true">
+    <row r="9">
       <c r="A9" t="s" s="2">
         <v>131</v>
       </c>
@@ -2827,11 +2820,11 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>79</v>
@@ -2846,17 +2839,15 @@
         <v>80</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>136</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>80</v>
@@ -2893,16 +2884,14 @@
         <v>80</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>137</v>
@@ -2923,7 +2912,7 @@
         <v>80</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>80</v>
@@ -2932,48 +2921,46 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>139</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>80</v>
       </c>
@@ -3021,7 +3008,7 @@
         <v>80</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -3030,7 +3017,7 @@
         <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>138</v>
@@ -3039,7 +3026,7 @@
         <v>80</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>80</v>
@@ -3048,16 +3035,16 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -3070,25 +3057,25 @@
         <v>80</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>80</v>
@@ -3137,7 +3124,7 @@
         <v>80</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -3149,27 +3136,27 @@
         <v>80</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="AM11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN11" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="AN11" t="s" s="2">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="12" hidden="true">
-      <c r="A12" t="s" s="2">
-        <v>154</v>
-      </c>
       <c r="B12" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3192,16 +3179,20 @@
         <v>88</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="O12" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>80</v>
       </c>
@@ -3249,7 +3240,7 @@
         <v>80</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -3270,18 +3261,18 @@
         <v>159</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>80</v>
+        <v>161</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3304,17 +3295,15 @@
         <v>88</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>80</v>
@@ -3363,7 +3352,7 @@
         <v>80</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -3378,10 +3367,10 @@
         <v>99</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>80</v>
@@ -3390,16 +3379,16 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3418,18 +3407,18 @@
         <v>88</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>167</v>
+        <v>101</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N14" s="2"/>
-      <c r="O14" t="s" s="2">
         <v>170</v>
       </c>
+      <c r="N14" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>80</v>
       </c>
@@ -3477,7 +3466,7 @@
         <v>80</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -3492,10 +3481,10 @@
         <v>99</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>80</v>
@@ -3504,16 +3493,16 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3532,19 +3521,17 @@
         <v>88</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>80</v>
@@ -3593,7 +3580,7 @@
         <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -3608,7 +3595,7 @@
         <v>99</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>80</v>
@@ -3620,16 +3607,16 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>80</v>
+        <v>181</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3648,18 +3635,20 @@
         <v>88</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O16" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="P16" t="s" s="2">
         <v>80</v>
       </c>
@@ -3707,7 +3696,7 @@
         <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -3722,7 +3711,7 @@
         <v>99</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>80</v>
+        <v>186</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>80</v>
@@ -3734,12 +3723,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3747,35 +3736,33 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>107</v>
+        <v>175</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>187</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>80</v>
       </c>
@@ -3799,13 +3786,13 @@
         <v>80</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>188</v>
+        <v>80</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>185</v>
+        <v>80</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>189</v>
+        <v>80</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>80</v>
@@ -3823,13 +3810,13 @@
         <v>80</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>80</v>
@@ -3838,24 +3825,24 @@
         <v>99</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="AL17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN17" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="AM17" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="18" hidden="true">
-      <c r="A18" t="s" s="2">
-        <v>194</v>
-      </c>
       <c r="B18" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3881,16 +3868,16 @@
         <v>107</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="O18" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>80</v>
@@ -3915,13 +3902,13 @@
         <v>80</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>80</v>
@@ -3939,7 +3926,7 @@
         <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>87</v>
@@ -3954,19 +3941,19 @@
         <v>99</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AM18" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AN18" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="AL18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>80</v>
-      </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>202</v>
       </c>
@@ -3979,34 +3966,34 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="N19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>80</v>
@@ -4031,13 +4018,13 @@
         <v>80</v>
       </c>
       <c r="X19" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="Z19" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>80</v>
@@ -4058,10 +4045,10 @@
         <v>202</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>80</v>
@@ -4070,24 +4057,24 @@
         <v>99</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>80</v>
+        <v>209</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>211</v>
+        <v>80</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4098,7 +4085,7 @@
         <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>80</v>
@@ -4110,16 +4097,20 @@
         <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="O20" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>80</v>
       </c>
@@ -4143,13 +4134,13 @@
         <v>80</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>80</v>
+        <v>216</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>80</v>
+        <v>217</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>80</v>
+        <v>218</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>80</v>
@@ -4167,13 +4158,13 @@
         <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>80</v>
@@ -4188,18 +4179,18 @@
         <v>80</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4222,18 +4213,16 @@
         <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="N21" s="2"/>
-      <c r="O21" t="s" s="2">
-        <v>219</v>
-      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>80</v>
       </c>
@@ -4281,7 +4270,7 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -4302,26 +4291,26 @@
         <v>80</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>222</v>
+        <v>80</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>87</v>
@@ -4336,16 +4325,18 @@
         <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
+      <c r="O22" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="P22" t="s" s="2">
         <v>80</v>
       </c>
@@ -4393,10 +4384,10 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>87</v>
@@ -4408,28 +4399,28 @@
         <v>99</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>226</v>
+        <v>80</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>227</v>
+        <v>80</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>228</v>
       </c>
       <c r="AN22" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
         <v>229</v>
       </c>
-    </row>
-    <row r="23" hidden="true">
-      <c r="A23" t="s" s="2">
-        <v>230</v>
-      </c>
       <c r="B23" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>80</v>
+        <v>230</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4456,9 +4447,7 @@
       <c r="M23" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="N23" t="s" s="2">
-        <v>234</v>
-      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>80</v>
@@ -4507,10 +4496,10 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>87</v>
@@ -4522,28 +4511,28 @@
         <v>99</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="AN23" t="s" s="2">
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
         <v>238</v>
       </c>
-    </row>
-    <row r="24" hidden="true">
-      <c r="A24" t="s" s="2">
-        <v>239</v>
-      </c>
       <c r="B24" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4562,20 +4551,18 @@
         <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="M24" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>245</v>
-      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>80</v>
       </c>
@@ -4623,7 +4610,7 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4638,32 +4625,32 @@
         <v>99</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="AL24" t="s" s="2">
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AM24" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="25" hidden="true">
-      <c r="A25" t="s" s="2">
-        <v>250</v>
-      </c>
       <c r="B25" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>87</v>
@@ -4678,16 +4665,20 @@
         <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="N25" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="M25" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>80</v>
       </c>
@@ -4735,7 +4726,7 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4750,19 +4741,19 @@
         <v>99</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AN25" t="s" s="2">
-        <v>80</v>
-      </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
         <v>258</v>
       </c>
@@ -4771,7 +4762,7 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>80</v>
+        <v>259</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4790,17 +4781,15 @@
         <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N26" t="s" s="2">
         <v>262</v>
       </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>80</v>
@@ -4867,21 +4856,21 @@
         <v>263</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>80</v>
+        <v>264</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4892,7 +4881,7 @@
         <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>80</v>
@@ -4901,19 +4890,19 @@
         <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4963,13 +4952,13 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>80</v>
@@ -4978,24 +4967,24 @@
         <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>80</v>
+        <v>271</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>80</v>
+        <v>272</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5018,18 +5007,18 @@
         <v>80</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" t="s" s="2">
-        <v>273</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>80</v>
       </c>
@@ -5077,7 +5066,7 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -5092,24 +5081,24 @@
         <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>274</v>
+        <v>80</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>275</v>
+        <v>80</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5129,20 +5118,18 @@
         <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N29" t="s" s="2">
         <v>280</v>
       </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>281</v>
       </c>
@@ -5193,7 +5180,7 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5211,21 +5198,21 @@
         <v>282</v>
       </c>
       <c r="AL29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="AN29" t="s" s="2">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="30" hidden="true">
-      <c r="A30" t="s" s="2">
-        <v>286</v>
-      </c>
       <c r="B30" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5245,22 +5232,22 @@
         <v>80</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>80</v>
@@ -5309,7 +5296,7 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5324,24 +5311,24 @@
         <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="AL30" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AN30" t="s" s="2">
-        <v>80</v>
+        <v>293</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5364,19 +5351,19 @@
         <v>80</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>80</v>
@@ -5425,7 +5412,7 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5440,19 +5427,19 @@
         <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>299</v>
+        <v>80</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>300</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
         <v>301</v>
       </c>
@@ -5465,7 +5452,7 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>79</v>
@@ -5488,9 +5475,11 @@
       <c r="M32" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="N32" s="2"/>
+      <c r="N32" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="O32" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>80</v>
@@ -5551,10 +5540,10 @@
         <v>80</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>306</v>
+        <v>80</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>307</v>
@@ -5563,15 +5552,15 @@
         <v>80</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>80</v>
+        <v>308</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5579,10 +5568,10 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>80</v>
@@ -5594,16 +5583,18 @@
         <v>80</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>213</v>
+        <v>310</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>80</v>
       </c>
@@ -5651,25 +5642,25 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>80</v>
+        <v>314</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>80</v>
+        <v>315</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>80</v>
@@ -5678,23 +5669,23 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>80</v>
@@ -5706,17 +5697,15 @@
         <v>80</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>133</v>
+        <v>221</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>134</v>
+        <v>318</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>80</v>
@@ -5765,25 +5754,25 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>80</v>
@@ -5792,16 +5781,16 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>317</v>
+        <v>146</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5814,26 +5803,24 @@
         <v>80</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>80</v>
       </c>
@@ -5881,7 +5868,7 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5899,7 +5886,7 @@
         <v>80</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>130</v>
+        <v>321</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>80</v>
@@ -5908,16 +5895,16 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>80</v>
+        <v>327</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5930,24 +5917,26 @@
         <v>80</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>203</v>
+        <v>132</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="O36" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>80</v>
       </c>
@@ -5971,11 +5960,13 @@
         <v>80</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="Y36" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Z36" t="s" s="2">
-        <v>325</v>
+        <v>80</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>80</v>
@@ -5993,7 +5984,7 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -6005,13 +5996,13 @@
         <v>80</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>80</v>
@@ -6020,12 +6011,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6048,20 +6039,18 @@
         <v>80</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>287</v>
+        <v>211</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>80</v>
       </c>
@@ -6085,13 +6074,11 @@
         <v>80</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="Y37" s="2"/>
       <c r="Z37" t="s" s="2">
-        <v>80</v>
+        <v>335</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>80</v>
@@ -6109,7 +6096,7 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6124,10 +6111,10 @@
         <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>331</v>
+        <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>332</v>
+        <v>80</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>80</v>
@@ -6136,12 +6123,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6164,19 +6151,19 @@
         <v>80</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>334</v>
+        <v>295</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>80</v>
@@ -6225,7 +6212,7 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6240,24 +6227,24 @@
         <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>80</v>
+        <v>341</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>340</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6268,7 +6255,7 @@
         <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>80</v>
@@ -6280,19 +6267,19 @@
         <v>80</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>80</v>
@@ -6341,39 +6328,39 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>347</v>
+        <v>80</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>348</v>
+        <v>80</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>307</v>
+        <v>349</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>80</v>
+        <v>350</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6381,7 +6368,7 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>87</v>
@@ -6396,17 +6383,19 @@
         <v>80</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>302</v>
+        <v>352</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="O40" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>80</v>
@@ -6455,7 +6444,7 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6464,16 +6453,16 @@
         <v>87</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>80</v>
+        <v>358</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>353</v>
+        <v>316</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>80</v>
@@ -6482,12 +6471,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6495,7 +6484,7 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>87</v>
@@ -6510,16 +6499,18 @@
         <v>80</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>213</v>
+        <v>310</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>309</v>
+        <v>360</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>310</v>
+        <v>361</v>
       </c>
       <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>80</v>
       </c>
@@ -6567,7 +6558,7 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>311</v>
+        <v>359</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6576,16 +6567,16 @@
         <v>87</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>80</v>
+        <v>357</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>312</v>
+        <v>363</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>80</v>
@@ -6594,12 +6585,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6607,11 +6598,11 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G42" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G42" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H42" t="s" s="2">
         <v>80</v>
       </c>
@@ -6622,13 +6613,13 @@
         <v>80</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>133</v>
+        <v>221</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>356</v>
+        <v>318</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>357</v>
+        <v>319</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6667,35 +6658,37 @@
         <v>80</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="AC42" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>359</v>
+        <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>80</v>
+        <v>321</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>80</v>
@@ -6704,16 +6697,14 @@
         <v>80</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="C43" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
         <v>80</v>
       </c>
@@ -6722,7 +6713,7 @@
         <v>87</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>80</v>
@@ -6734,13 +6725,13 @@
         <v>80</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>362</v>
+        <v>132</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>363</v>
+        <v>133</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>364</v>
+        <v>134</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6779,19 +6770,17 @@
         <v>80</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC43" s="2"/>
       <c r="AD43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6800,7 +6789,7 @@
         <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>365</v>
+        <v>80</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>138</v>
@@ -6818,48 +6807,46 @@
         <v>80</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
         <v>366</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="C44" s="2"/>
+        <v>365</v>
+      </c>
+      <c r="C44" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="D44" t="s" s="2">
-        <v>317</v>
+        <v>80</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>133</v>
+        <v>368</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>318</v>
+        <v>369</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>80</v>
       </c>
@@ -6907,7 +6894,7 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6916,7 +6903,7 @@
         <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>138</v>
@@ -6925,7 +6912,7 @@
         <v>80</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>80</v>
@@ -6934,45 +6921,47 @@
         <v>80</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>80</v>
+        <v>327</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>368</v>
+        <v>328</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="O45" t="s" s="2">
-        <v>370</v>
+        <v>150</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>80</v>
@@ -6982,7 +6971,7 @@
         <v>80</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>371</v>
+        <v>80</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>80</v>
@@ -6997,63 +6986,63 @@
         <v>80</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>188</v>
+        <v>80</v>
       </c>
       <c r="Y45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="Z45" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="46" hidden="true">
-      <c r="A46" t="s" s="2">
-        <v>375</v>
-      </c>
       <c r="B46" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7064,7 +7053,7 @@
         <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>80</v>
@@ -7076,17 +7065,17 @@
         <v>80</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>376</v>
+        <v>107</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>156</v>
+        <v>373</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>80</v>
@@ -7096,7 +7085,7 @@
         <v>80</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>80</v>
+        <v>376</v>
       </c>
       <c r="T46" t="s" s="2">
         <v>80</v>
@@ -7111,13 +7100,13 @@
         <v>80</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>80</v>
+        <v>196</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>80</v>
+        <v>377</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>80</v>
+        <v>378</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>80</v>
@@ -7135,13 +7124,13 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>80</v>
@@ -7150,10 +7139,10 @@
         <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>159</v>
+        <v>379</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>80</v>
@@ -7162,12 +7151,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7190,19 +7179,17 @@
         <v>80</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>101</v>
+        <v>381</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>80</v>
@@ -7251,7 +7238,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7266,10 +7253,10 @@
         <v>99</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>80</v>
@@ -7278,12 +7265,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7294,7 +7281,7 @@
         <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>80</v>
@@ -7306,19 +7293,19 @@
         <v>80</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>203</v>
+        <v>101</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>382</v>
+        <v>169</v>
       </c>
       <c r="M48" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="O48" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>80</v>
@@ -7343,11 +7330,13 @@
         <v>80</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="Y48" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Z48" t="s" s="2">
-        <v>386</v>
+        <v>80</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>80</v>
@@ -7365,13 +7354,13 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>80</v>
@@ -7380,24 +7369,24 @@
         <v>99</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>387</v>
+        <v>172</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>388</v>
+        <v>167</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>389</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7408,7 +7397,7 @@
         <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>80</v>
@@ -7420,18 +7409,20 @@
         <v>80</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="O49" s="2"/>
+        <v>389</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>80</v>
       </c>
@@ -7455,13 +7446,11 @@
         <v>80</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>394</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="Y49" s="2"/>
       <c r="Z49" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>80</v>
@@ -7479,13 +7468,13 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>80</v>
@@ -7494,24 +7483,24 @@
         <v>99</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>80</v>
+        <v>393</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>80</v>
+        <v>394</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7534,16 +7523,16 @@
         <v>80</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="N50" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7569,13 +7558,13 @@
         <v>80</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>80</v>
+        <v>216</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>80</v>
+        <v>399</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>80</v>
@@ -7593,7 +7582,7 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7608,7 +7597,7 @@
         <v>99</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>282</v>
+        <v>401</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>80</v>
@@ -7620,7 +7609,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
         <v>402</v>
       </c>
@@ -7648,18 +7637,18 @@
         <v>80</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>294</v>
+        <v>403</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" t="s" s="2">
         <v>405</v>
       </c>
+      <c r="N51" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>80</v>
       </c>
@@ -7722,10 +7711,10 @@
         <v>99</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>80</v>
+        <v>290</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>299</v>
+        <v>80</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>80</v>
@@ -7734,12 +7723,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7747,32 +7736,30 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>107</v>
+        <v>302</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="N52" t="s" s="2">
         <v>409</v>
       </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>410</v>
       </c>
@@ -7799,13 +7786,13 @@
         <v>80</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>188</v>
+        <v>80</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>411</v>
+        <v>80</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>412</v>
+        <v>80</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>80</v>
@@ -7823,13 +7810,13 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>80</v>
@@ -7838,24 +7825,24 @@
         <v>99</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>413</v>
+        <v>80</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>414</v>
+        <v>307</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>415</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7863,7 +7850,7 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>87</v>
@@ -7872,24 +7859,26 @@
         <v>80</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>203</v>
+        <v>107</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="O53" s="2"/>
+        <v>414</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>415</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>80</v>
       </c>
@@ -7913,13 +7902,13 @@
         <v>80</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>80</v>
+        <v>196</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>80</v>
+        <v>416</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>80</v>
+        <v>417</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>80</v>
@@ -7937,10 +7926,10 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>87</v>
@@ -7952,19 +7941,19 @@
         <v>99</v>
       </c>
       <c r="AK53" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN53" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="AL53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>80</v>
-      </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
         <v>421</v>
       </c>
@@ -7986,32 +7975,28 @@
         <v>80</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="N54" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>426</v>
-      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q54" t="s" s="2">
-        <v>427</v>
-      </c>
+      <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
         <v>80</v>
       </c>
@@ -8070,10 +8055,10 @@
         <v>99</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>429</v>
+        <v>80</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>80</v>
@@ -8082,12 +8067,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8104,28 +8089,32 @@
         <v>80</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="O55" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="P55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q55" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="M55" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="P55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
         <v>80</v>
       </c>
@@ -8157,17 +8146,19 @@
         <v>80</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="AC55" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>359</v>
+        <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8182,28 +8173,26 @@
         <v>99</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>246</v>
+        <v>433</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>247</v>
+        <v>434</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>436</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="C56" t="s" s="2">
-        <v>438</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
         <v>80</v>
       </c>
@@ -8215,7 +8204,7 @@
         <v>87</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>80</v>
@@ -8224,17 +8213,17 @@
         <v>80</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>241</v>
+        <v>436</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>80</v>
@@ -8283,7 +8272,7 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8298,24 +8287,24 @@
         <v>99</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>436</v>
+        <v>440</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8338,19 +8327,19 @@
         <v>80</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
@@ -8399,7 +8388,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8417,21 +8406,21 @@
         <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8454,19 +8443,19 @@
         <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>80</v>
@@ -8515,7 +8504,7 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8530,24 +8519,24 @@
         <v>99</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8570,13 +8559,13 @@
         <v>80</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8603,29 +8592,29 @@
         <v>80</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>435</v>
+        <v>462</v>
       </c>
       <c r="AC59" s="2"/>
       <c r="AD59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8643,24 +8632,24 @@
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>80</v>
@@ -8682,13 +8671,13 @@
         <v>80</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8715,13 +8704,13 @@
         <v>80</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>80</v>
@@ -8739,7 +8728,7 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -8757,25 +8746,25 @@
         <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -8794,17 +8783,17 @@
         <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>80</v>
@@ -8853,7 +8842,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -8871,21 +8860,21 @@
         <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8908,13 +8897,13 @@
         <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8965,7 +8954,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -8983,21 +8972,21 @@
         <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>477</v>
+        <v>480</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9020,13 +9009,13 @@
         <v>80</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9077,7 +9066,7 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9095,21 +9084,21 @@
         <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>340</v>
+        <v>350</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9132,17 +9121,17 @@
         <v>80</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>80</v>
@@ -9191,7 +9180,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9206,37 +9195,19 @@
         <v>99</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>340</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN64">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="26">
-      <filters blank="true"/>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="A2:AI63">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$G2&lt;&gt;"Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$Q2&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/branches/ARVTreatment--FIG-58/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/ARVTreatment--FIG-58/StructureDefinition-hiv-arv-treatment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T14:52:43+00:00</t>
+    <t>2023-02-28T14:54:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ARVTreatment--FIG-58/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/ARVTreatment--FIG-58/StructureDefinition-hiv-arv-treatment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2349" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2387" uniqueCount="497">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T14:54:29+00:00</t>
+    <t>2023-03-01T11:03:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -422,10 +422,717 @@
     <t>CarePlan.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>CarePlan.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>CarePlan.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>External Ids for this plan</t>
+  </si>
+  <si>
+    <t>Business identifiers assigned to this care plan by the performer or other systems which remain constant as the resource is updated and propagates from server to server.</t>
+  </si>
+  <si>
+    <t>This is a business identifier, not a resource identifier (see [discussion](http://hl7.org/fhir/R4/resource.html#identifiers)).  It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.  For example, multiple Patient and a Person resource instance might share the same social insurance number.</t>
+  </si>
+  <si>
+    <t>Allows identification of the care plan as it is known by various participating systems and in a way that remains consistent across servers.</t>
+  </si>
+  <si>
+    <t>Request.identifier</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>PTH-3</t>
+  </si>
+  <si>
+    <t>CarePlan.instantiatesCanonical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(PlanDefinition|Questionnaire|Measure|ActivityDefinition|OperationDefinition)
+</t>
+  </si>
+  <si>
+    <t>Instantiates FHIR protocol or definition</t>
+  </si>
+  <si>
+    <t>The URL pointing to a FHIR-defined protocol, guideline, questionnaire or other definition that is adhered to in whole or in part by this CarePlan.</t>
+  </si>
+  <si>
+    <t>Request.instantiatesCanonical</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=DEFN].target</t>
+  </si>
+  <si>
+    <t>CarePlan.instantiatesUri</t>
+  </si>
+  <si>
+    <t>Instantiates external protocol or definition</t>
+  </si>
+  <si>
+    <t>The URL pointing to an externally maintained protocol, guideline, questionnaire or other definition that is adhered to in whole or in part by this CarePlan.</t>
+  </si>
+  <si>
+    <t>This might be an HTML page, PDF, etc. or could just be a non-resolvable URI identifier.</t>
+  </si>
+  <si>
+    <t>Request.instantiatesUri</t>
+  </si>
+  <si>
+    <t>CarePlan.basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fulfills
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(CarePlan)
+</t>
+  </si>
+  <si>
+    <t>Fulfills CarePlan</t>
+  </si>
+  <si>
+    <t>A care plan that is fulfilled in whole or in part by this care plan.</t>
+  </si>
+  <si>
+    <t>Allows tracing of the care plan and tracking whether proposals/recommendations were acted upon.</t>
+  </si>
+  <si>
+    <t>Request.basedOn</t>
+  </si>
+  <si>
+    <t>CarePlan.replaces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">supersedes
+</t>
+  </si>
+  <si>
+    <t>CarePlan replaced by this CarePlan</t>
+  </si>
+  <si>
+    <t>Completed or terminated care plan whose function is taken by this new care plan.</t>
+  </si>
+  <si>
+    <t>The replacement could be because the initial care plan was immediately rejected (due to an issue) or because the previous care plan was completed, but the need for the action described by the care plan remains ongoing.</t>
+  </si>
+  <si>
+    <t>Allows tracing the continuation of a therapy or administrative process instantiated through multiple care plans.</t>
+  </si>
+  <si>
+    <t>Request.replaces</t>
+  </si>
+  <si>
+    <t>CarePlan.partOf</t>
+  </si>
+  <si>
+    <t>Part of referenced CarePlan</t>
+  </si>
+  <si>
+    <t>A larger care plan of which this particular care plan is a component or step.</t>
+  </si>
+  <si>
+    <t>Each care plan is an independent request, such that having a care plan be part of another care plan can cause issues with cascading statuses.  As such, this element is still being discussed.</t>
+  </si>
+  <si>
+    <t>CarePlan.status</t>
+  </si>
+  <si>
+    <t>draft | active | on-hold | revoked | completed | entered-in-error | unknown</t>
+  </si>
+  <si>
+    <t>Indicates whether the plan is currently being acted upon, represents future intentions or is now a historical record.</t>
+  </si>
+  <si>
+    <t>The unknown code is not to be used to convey other statuses.  The unknown code should be used when one of the statuses applies, but the authoring system doesn't know the current state of the care plan.
+This element is labeled as a modifier because the status contains the code entered-in-error that marks the plan as not currently valid.</t>
+  </si>
+  <si>
+    <t>Allows clinicians to determine whether the plan is actionable or not.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Request.status {uses different ValueSet}</t>
+  </si>
+  <si>
+    <t>.statusCode planned = new active = active completed = completed</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>PTH-5</t>
+  </si>
+  <si>
+    <t>CarePlan.intent</t>
+  </si>
+  <si>
+    <t>proposal | plan | order | option</t>
+  </si>
+  <si>
+    <t>Indicates the level of authority/intentionality associated with the care plan and where the care plan fits into the workflow chain.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the intent alters when and how the resource is actually applicable.</t>
+  </si>
+  <si>
+    <t>Proposals/recommendations, plans and orders all use the same structure and can exist in the same fulfillment chain.</t>
+  </si>
+  <si>
+    <t>Codes indicating the degree of authority/intentionality associated with a care plan.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/care-plan-intent|4.0.1</t>
+  </si>
+  <si>
+    <t>Request.intent</t>
+  </si>
+  <si>
+    <t>CarePlan.category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Type of plan</t>
+  </si>
+  <si>
+    <t>Identifies what "kind" of plan this is to support differentiation between multiple co-existing plans; e.g. "Home health", "psychiatric", "asthma", "disease management", "wellness plan", etc.</t>
+  </si>
+  <si>
+    <t>There may be multiple axes of categorization and one plan may serve multiple purposes.  In some cases, this may be redundant with references to CarePlan.concern.</t>
+  </si>
+  <si>
+    <t>Used for filtering what plan(s) are retrieved and displayed to different types of users.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Identifies what "kind" of plan this is to support differentiation between multiple co-existing plans; e.g. "Home health", "psychiatric", "asthma", "disease management", etc.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/care-plan-category</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>CarePlan.title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Human-friendly name for the care plan</t>
+  </si>
+  <si>
+    <t>Human-friendly name for the care plan.</t>
+  </si>
+  <si>
+    <t>CarePlan.description</t>
+  </si>
+  <si>
+    <t>Summary of nature of plan</t>
+  </si>
+  <si>
+    <t>A description of the scope and nature of the plan.</t>
+  </si>
+  <si>
+    <t>Provides more detail than conveyed by category.</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>CarePlan.subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patient
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Patient|Group)
+</t>
+  </si>
+  <si>
+    <t>Who the care plan is for</t>
+  </si>
+  <si>
+    <t>Identifies the patient or group whose intended care is described by the plan.</t>
+  </si>
+  <si>
+    <t>Request.subject</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=PAT].role[classCode=PAT]</t>
+  </si>
+  <si>
+    <t>FiveWs.subject</t>
+  </si>
+  <si>
+    <t>PID-3</t>
+  </si>
+  <si>
+    <t>CarePlan.encounter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Encounter)
+</t>
+  </si>
+  <si>
+    <t>Encounter created as part of</t>
+  </si>
+  <si>
+    <t>The Encounter during which this CarePlan was created or to which the creation of this record is tightly associated.</t>
+  </si>
+  <si>
+    <t>This will typically be the encounter the event occurred within, but some activities may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter. CarePlan activities conducted as a result of the care plan may well occur as part of other encounters.</t>
+  </si>
+  <si>
+    <t>Request.context</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>FiveWs.context</t>
+  </si>
+  <si>
+    <t>Associated PV1</t>
+  </si>
+  <si>
+    <t>CarePlan.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">timing
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period plan covers</t>
+  </si>
+  <si>
+    <t>Indicates when the plan did (or is intended to) come into effect and end.</t>
+  </si>
+  <si>
+    <t>Any activities scheduled as part of the plan should be constrained to the specified period regardless of whether the activities are planned within a single encounter/episode or across multiple encounters/episodes (e.g. the longitudinal management of a chronic condition).</t>
+  </si>
+  <si>
+    <t>Allows tracking what plan(s) are in effect at a particular time.</t>
+  </si>
+  <si>
+    <t>Request.occurrence[x]</t>
+  </si>
+  <si>
+    <t>.effectiveTime</t>
+  </si>
+  <si>
+    <t>FiveWs.planned</t>
+  </si>
+  <si>
+    <t>GOL-7 / GOL-8</t>
+  </si>
+  <si>
+    <t>CarePlan.created</t>
+  </si>
+  <si>
+    <t xml:space="preserve">authoredOn
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>Date record was first recorded</t>
+  </si>
+  <si>
+    <t>Represents when this particular CarePlan record was created in the system, which is often a system-generated date.</t>
+  </si>
+  <si>
+    <t>Request.authoredOn</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=AUT].time</t>
+  </si>
+  <si>
+    <t>FiveWs.recorded</t>
+  </si>
+  <si>
+    <t>CarePlan.author</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Patient|Practitioner|PractitionerRole|Device|RelatedPerson|Organization|CareTeam)
+</t>
+  </si>
+  <si>
+    <t>Who is the designated responsible party</t>
+  </si>
+  <si>
+    <t>When populated, the author is responsible for the care plan.  The care plan is attributed to the author.</t>
+  </si>
+  <si>
+    <t>The author may also be a contributor.  For example, an organization can be an author, but not listed as a contributor.</t>
+  </si>
+  <si>
+    <t>Request.requester</t>
+  </si>
+  <si>
+    <t>FiveWs.author</t>
+  </si>
+  <si>
+    <t>CarePlan.contributor</t>
+  </si>
+  <si>
+    <t>Who provided the content of the care plan</t>
+  </si>
+  <si>
+    <t>Identifies the individual(s) or organization who provided the contents of the care plan.</t>
+  </si>
+  <si>
+    <t>Collaborative care plans may have multiple contributors.</t>
+  </si>
+  <si>
+    <t>CarePlan.careTeam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(CareTeam)
+</t>
+  </si>
+  <si>
+    <t>Who's involved in plan?</t>
+  </si>
+  <si>
+    <t>Identifies all people and organizations who are expected to be involved in the care envisioned by this plan.</t>
+  </si>
+  <si>
+    <t>Allows representation of care teams, helps scope care plan.  In some cases may be a determiner of access permissions.</t>
+  </si>
+  <si>
+    <t>Request.performer {similar but does not entail CareTeam}</t>
+  </si>
+  <si>
+    <t>FiveWs.actor</t>
+  </si>
+  <si>
+    <t>CarePlan.addresses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Condition)
+</t>
+  </si>
+  <si>
+    <t>Health issues this plan addresses</t>
+  </si>
+  <si>
+    <t>Identifies the conditions/problems/concerns/diagnoses/etc. whose management and/or mitigation are handled by this plan.</t>
+  </si>
+  <si>
+    <t>When the diagnosis is related to an allergy or intolerance, the Condition and AllergyIntolerance resources can both be used. However, to be actionable for decision support, using Condition alone is not sufficient as the allergy or intolerance condition needs to be represented as an AllergyIntolerance.</t>
+  </si>
+  <si>
+    <t>Links plan to the conditions it manages.  The element can identify risks addressed by the plan as well as active conditions.  (The Condition resource can include things like "at risk for hypertension" or "fall risk".)  Also scopes plans - multiple plans may exist addressing different concerns.</t>
+  </si>
+  <si>
+    <t>Request.reasonReference</t>
+  </si>
+  <si>
+    <t>.actRelationship[typeCode=SUBJ].target[classCode=CONC, moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>FiveWs.why[x]</t>
+  </si>
+  <si>
+    <t>PRB-4</t>
+  </si>
+  <si>
+    <t>CarePlan.supportingInfo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Resource)
+</t>
+  </si>
+  <si>
+    <t>Information considered as part of plan</t>
+  </si>
+  <si>
+    <t>Identifies portions of the patient's record that specifically influenced the formation of the plan.  These might include comorbidities, recent procedures, limitations, recent assessments, etc.</t>
+  </si>
+  <si>
+    <t>Use "concern" to identify specific conditions addressed by the care plan.</t>
+  </si>
+  <si>
+    <t>Identifies barriers and other considerations associated with the care plan.</t>
+  </si>
+  <si>
+    <t>Request.supportingInfo</t>
+  </si>
+  <si>
+    <t>CarePlan.goal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Goal)
+</t>
+  </si>
+  <si>
+    <t>Desired outcome of plan</t>
+  </si>
+  <si>
+    <t>Describes the intended objective(s) of carrying out the care plan.</t>
+  </si>
+  <si>
+    <t>Goal can be achieving a particular change or merely maintaining a current state or even slowing a decline.</t>
+  </si>
+  <si>
+    <t>Provides context for plan.  Allows plan effectiveness to be evaluated by clinicians.</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode&lt;=OBJ].</t>
+  </si>
+  <si>
+    <t>GOL.1</t>
+  </si>
+  <si>
+    <t>CarePlan.activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Action to occur as part of plan</t>
+  </si>
+  <si>
+    <t>Identifies a planned action to occur as part of the plan.  For example, a medication to be used, lab tests to perform, self-monitoring, education, etc.</t>
+  </si>
+  <si>
+    <t>Allows systems to prompt for performance of planned activities, and validate plans against best practice.</t>
+  </si>
+  <si>
+    <t>cpl-3:Provide a reference or detail, not both {detail.empty() or reference.empty()}
+ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
+  </si>
+  <si>
+    <t>{no mapping
+NOTE: This is a list of contained Request-Event tuples!}</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=COMP].target</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.outcomeCodeableConcept</t>
+  </si>
+  <si>
+    <t>Results of the activity</t>
+  </si>
+  <si>
+    <t>Identifies the outcome at the point when the status of the activity is assessed.  For example, the outcome of an education activity could be patient understands (or not).</t>
+  </si>
+  <si>
+    <t>Note that this should not duplicate the activity status (e.g. completed or in progress).</t>
+  </si>
+  <si>
+    <t>http://openhie.org/fhir/hiv-cbs/ValueSet/vs-careplan-outcome</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.outcomeReference</t>
+  </si>
+  <si>
+    <t>Appointment, Encounter, Procedure, etc.</t>
+  </si>
+  <si>
+    <t>Details of the outcome or action resulting from the activity.  The reference to an "event" resource, such as Procedure or Encounter or Observation, is the result/outcome of the activity itself.  The activity can be conveyed using CarePlan.activity.detail OR using the CarePlan.activity.reference (a reference to a “request” resource).</t>
+  </si>
+  <si>
+    <t>The activity outcome is independent of the outcome of the related goal(s).  For example, if the goal is to achieve a target body weight of 150 lbs and an activity is defined to diet, then the activity outcome could be calories consumed whereas the goal outcome is an observation for the actual body weight measured.</t>
+  </si>
+  <si>
+    <t>Links plan to resulting actions.</t>
+  </si>
+  <si>
+    <t>{Event that is outcome of Request in activity.reference}</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=FLFS].source</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.progress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annotation
+</t>
+  </si>
+  <si>
+    <t>Comments about the activity status/progress</t>
+  </si>
+  <si>
+    <t>Notes about the adherence/status/progress of the activity.</t>
+  </si>
+  <si>
+    <t>This element should NOT be used to describe the activity to be performed - that occurs either within the resource pointed to by activity.detail.reference or in activity.detail.description.</t>
+  </si>
+  <si>
+    <t>Can be used to capture information about adherence, progress, concerns, etc.</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code="annotation"].value</t>
+  </si>
+  <si>
+    <t>NTE?</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Appointment|CommunicationRequest|DeviceRequest|MedicationRequest|NutritionOrder|Task|ServiceRequest|VisionPrescription|RequestGroup)
+</t>
+  </si>
+  <si>
+    <t>Activity details defined in specific resource</t>
+  </si>
+  <si>
+    <t>The details of the proposed activity represented in a specific resource.</t>
+  </si>
+  <si>
+    <t>Standard extension exists ([resource-pertainsToGoal](http://hl7.org/fhir/R4/extension-resource-pertainstogoal.html)) that allows goals to be referenced from any of the referenced resources in CarePlan.activity.reference.  +The goal should be visible when the resource referenced by CarePlan.activity.reference is viewed independently from the CarePlan.  Requests that are pointed to by a CarePlan using this element should *not* point to this CarePlan using the "basedOn" element.  i.e. Requests that are part of a CarePlan are not "based on" the CarePlan.</t>
+  </si>
+  <si>
+    <t>Details in a form consistent with other applications and contexts of use.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cpl-3
+</t>
+  </si>
+  <si>
+    <t>{Request that resulted in Event in activity.actionResulting}</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.detail</t>
+  </si>
+  <si>
+    <t>In-line definition of activity</t>
+  </si>
+  <si>
+    <t>A simple summary of a planned activity suitable for a general care plan system (e.g. form driven) that doesn't know about specific resources such as procedure etc.</t>
+  </si>
+  <si>
+    <t>Details in a simple form for generic care plan systems.</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=COMP, subsetCode=SUMM].target</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.detail.id</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.detail.extension</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>Extension</t>
   </si>
   <si>
@@ -439,725 +1146,40 @@
     <t>open</t>
   </si>
   <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>CarePlan.extension:change-type</t>
-  </si>
-  <si>
-    <t>change-type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://openhie.org/fhir/hiv-cbs/StructureDefinition/art-change-type}
+    <t>CarePlan.activity.detail.extension:artRegimenSwitched</t>
+  </si>
+  <si>
+    <t>artRegimenSwitched</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://openhie.org/fhir/hiv-cbs/StructureDefinition/art-regimen-switched}
 </t>
   </si>
   <si>
-    <t>ART Change Type</t>
-  </si>
-  <si>
-    <t>A list of options to distinguish the ART between Initial, Switch and Substitute</t>
+    <t>ART Regimen Switched</t>
+  </si>
+  <si>
+    <t>The ARV regimen has been switched to a new ARV regimen.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t>CarePlan.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>CarePlan.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
+    <t>CarePlan.activity.detail.extension:artRegimenSubstituded</t>
+  </si>
+  <si>
+    <t>artRegimenSubstituded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://openhie.org/fhir/hiv-cbs/StructureDefinition/art-regimen-substituted}
 </t>
   </si>
   <si>
-    <t>External Ids for this plan</t>
-  </si>
-  <si>
-    <t>Business identifiers assigned to this care plan by the performer or other systems which remain constant as the resource is updated and propagates from server to server.</t>
-  </si>
-  <si>
-    <t>This is a business identifier, not a resource identifier (see [discussion](http://hl7.org/fhir/R4/resource.html#identifiers)).  It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.  For example, multiple Patient and a Person resource instance might share the same social insurance number.</t>
-  </si>
-  <si>
-    <t>Allows identification of the care plan as it is known by various participating systems and in a way that remains consistent across servers.</t>
-  </si>
-  <si>
-    <t>Request.identifier</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>PTH-3</t>
-  </si>
-  <si>
-    <t>CarePlan.instantiatesCanonical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">canonical(PlanDefinition|Questionnaire|Measure|ActivityDefinition|OperationDefinition)
-</t>
-  </si>
-  <si>
-    <t>Instantiates FHIR protocol or definition</t>
-  </si>
-  <si>
-    <t>The URL pointing to a FHIR-defined protocol, guideline, questionnaire or other definition that is adhered to in whole or in part by this CarePlan.</t>
-  </si>
-  <si>
-    <t>Request.instantiatesCanonical</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=DEFN].target</t>
-  </si>
-  <si>
-    <t>CarePlan.instantiatesUri</t>
-  </si>
-  <si>
-    <t>Instantiates external protocol or definition</t>
-  </si>
-  <si>
-    <t>The URL pointing to an externally maintained protocol, guideline, questionnaire or other definition that is adhered to in whole or in part by this CarePlan.</t>
-  </si>
-  <si>
-    <t>This might be an HTML page, PDF, etc. or could just be a non-resolvable URI identifier.</t>
-  </si>
-  <si>
-    <t>Request.instantiatesUri</t>
-  </si>
-  <si>
-    <t>CarePlan.basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fulfills
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(CarePlan)
-</t>
-  </si>
-  <si>
-    <t>Fulfills CarePlan</t>
-  </si>
-  <si>
-    <t>A care plan that is fulfilled in whole or in part by this care plan.</t>
-  </si>
-  <si>
-    <t>Allows tracing of the care plan and tracking whether proposals/recommendations were acted upon.</t>
-  </si>
-  <si>
-    <t>Request.basedOn</t>
-  </si>
-  <si>
-    <t>CarePlan.replaces</t>
-  </si>
-  <si>
-    <t xml:space="preserve">supersedes
-</t>
-  </si>
-  <si>
-    <t>CarePlan replaced by this CarePlan</t>
-  </si>
-  <si>
-    <t>Completed or terminated care plan whose function is taken by this new care plan.</t>
-  </si>
-  <si>
-    <t>The replacement could be because the initial care plan was immediately rejected (due to an issue) or because the previous care plan was completed, but the need for the action described by the care plan remains ongoing.</t>
-  </si>
-  <si>
-    <t>Allows tracing the continuation of a therapy or administrative process instantiated through multiple care plans.</t>
-  </si>
-  <si>
-    <t>Request.replaces</t>
-  </si>
-  <si>
-    <t>CarePlan.partOf</t>
-  </si>
-  <si>
-    <t>Part of referenced CarePlan</t>
-  </si>
-  <si>
-    <t>A larger care plan of which this particular care plan is a component or step.</t>
-  </si>
-  <si>
-    <t>Each care plan is an independent request, such that having a care plan be part of another care plan can cause issues with cascading statuses.  As such, this element is still being discussed.</t>
-  </si>
-  <si>
-    <t>CarePlan.status</t>
-  </si>
-  <si>
-    <t>draft | active | on-hold | revoked | completed | entered-in-error | unknown</t>
-  </si>
-  <si>
-    <t>Indicates whether the plan is currently being acted upon, represents future intentions or is now a historical record.</t>
-  </si>
-  <si>
-    <t>The unknown code is not to be used to convey other statuses.  The unknown code should be used when one of the statuses applies, but the authoring system doesn't know the current state of the care plan.
-This element is labeled as a modifier because the status contains the code entered-in-error that marks the plan as not currently valid.</t>
-  </si>
-  <si>
-    <t>Allows clinicians to determine whether the plan is actionable or not.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Request.status {uses different ValueSet}</t>
-  </si>
-  <si>
-    <t>.statusCode planned = new active = active completed = completed</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>PTH-5</t>
-  </si>
-  <si>
-    <t>CarePlan.intent</t>
-  </si>
-  <si>
-    <t>proposal | plan | order | option</t>
-  </si>
-  <si>
-    <t>Indicates the level of authority/intentionality associated with the care plan and where the care plan fits into the workflow chain.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the intent alters when and how the resource is actually applicable.</t>
-  </si>
-  <si>
-    <t>Proposals/recommendations, plans and orders all use the same structure and can exist in the same fulfillment chain.</t>
-  </si>
-  <si>
-    <t>Codes indicating the degree of authority/intentionality associated with a care plan.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/care-plan-intent|4.0.1</t>
-  </si>
-  <si>
-    <t>Request.intent</t>
-  </si>
-  <si>
-    <t>CarePlan.category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Type of plan</t>
-  </si>
-  <si>
-    <t>Identifies what "kind" of plan this is to support differentiation between multiple co-existing plans; e.g. "Home health", "psychiatric", "asthma", "disease management", "wellness plan", etc.</t>
-  </si>
-  <si>
-    <t>There may be multiple axes of categorization and one plan may serve multiple purposes.  In some cases, this may be redundant with references to CarePlan.concern.</t>
-  </si>
-  <si>
-    <t>Used for filtering what plan(s) are retrieved and displayed to different types of users.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Identifies what "kind" of plan this is to support differentiation between multiple co-existing plans; e.g. "Home health", "psychiatric", "asthma", "disease management", etc.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/care-plan-category</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>CarePlan.title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Human-friendly name for the care plan</t>
-  </si>
-  <si>
-    <t>Human-friendly name for the care plan.</t>
-  </si>
-  <si>
-    <t>CarePlan.description</t>
-  </si>
-  <si>
-    <t>Summary of nature of plan</t>
-  </si>
-  <si>
-    <t>A description of the scope and nature of the plan.</t>
-  </si>
-  <si>
-    <t>Provides more detail than conveyed by category.</t>
-  </si>
-  <si>
-    <t>FiveWs.what[x]</t>
-  </si>
-  <si>
-    <t>CarePlan.subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patient
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Patient|Group)
-</t>
-  </si>
-  <si>
-    <t>Who the care plan is for</t>
-  </si>
-  <si>
-    <t>Identifies the patient or group whose intended care is described by the plan.</t>
-  </si>
-  <si>
-    <t>Request.subject</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=PAT].role[classCode=PAT]</t>
-  </si>
-  <si>
-    <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>PID-3</t>
-  </si>
-  <si>
-    <t>CarePlan.encounter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Encounter)
-</t>
-  </si>
-  <si>
-    <t>Encounter created as part of</t>
-  </si>
-  <si>
-    <t>The Encounter during which this CarePlan was created or to which the creation of this record is tightly associated.</t>
-  </si>
-  <si>
-    <t>This will typically be the encounter the event occurred within, but some activities may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter. CarePlan activities conducted as a result of the care plan may well occur as part of other encounters.</t>
-  </si>
-  <si>
-    <t>Request.context</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>FiveWs.context</t>
-  </si>
-  <si>
-    <t>Associated PV1</t>
-  </si>
-  <si>
-    <t>CarePlan.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">timing
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Time period plan covers</t>
-  </si>
-  <si>
-    <t>Indicates when the plan did (or is intended to) come into effect and end.</t>
-  </si>
-  <si>
-    <t>Any activities scheduled as part of the plan should be constrained to the specified period regardless of whether the activities are planned within a single encounter/episode or across multiple encounters/episodes (e.g. the longitudinal management of a chronic condition).</t>
-  </si>
-  <si>
-    <t>Allows tracking what plan(s) are in effect at a particular time.</t>
-  </si>
-  <si>
-    <t>Request.occurrence[x]</t>
-  </si>
-  <si>
-    <t>.effectiveTime</t>
-  </si>
-  <si>
-    <t>FiveWs.planned</t>
-  </si>
-  <si>
-    <t>GOL-7 / GOL-8</t>
-  </si>
-  <si>
-    <t>CarePlan.created</t>
-  </si>
-  <si>
-    <t xml:space="preserve">authoredOn
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>Date record was first recorded</t>
-  </si>
-  <si>
-    <t>Represents when this particular CarePlan record was created in the system, which is often a system-generated date.</t>
-  </si>
-  <si>
-    <t>Request.authoredOn</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=AUT].time</t>
-  </si>
-  <si>
-    <t>FiveWs.recorded</t>
-  </si>
-  <si>
-    <t>CarePlan.author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Patient|Practitioner|PractitionerRole|Device|RelatedPerson|Organization|CareTeam)
-</t>
-  </si>
-  <si>
-    <t>Who is the designated responsible party</t>
-  </si>
-  <si>
-    <t>When populated, the author is responsible for the care plan.  The care plan is attributed to the author.</t>
-  </si>
-  <si>
-    <t>The author may also be a contributor.  For example, an organization can be an author, but not listed as a contributor.</t>
-  </si>
-  <si>
-    <t>Request.requester</t>
-  </si>
-  <si>
-    <t>FiveWs.author</t>
-  </si>
-  <si>
-    <t>CarePlan.contributor</t>
-  </si>
-  <si>
-    <t>Who provided the content of the care plan</t>
-  </si>
-  <si>
-    <t>Identifies the individual(s) or organization who provided the contents of the care plan.</t>
-  </si>
-  <si>
-    <t>Collaborative care plans may have multiple contributors.</t>
-  </si>
-  <si>
-    <t>CarePlan.careTeam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(CareTeam)
-</t>
-  </si>
-  <si>
-    <t>Who's involved in plan?</t>
-  </si>
-  <si>
-    <t>Identifies all people and organizations who are expected to be involved in the care envisioned by this plan.</t>
-  </si>
-  <si>
-    <t>Allows representation of care teams, helps scope care plan.  In some cases may be a determiner of access permissions.</t>
-  </si>
-  <si>
-    <t>Request.performer {similar but does not entail CareTeam}</t>
-  </si>
-  <si>
-    <t>FiveWs.actor</t>
-  </si>
-  <si>
-    <t>CarePlan.addresses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Condition)
-</t>
-  </si>
-  <si>
-    <t>Health issues this plan addresses</t>
-  </si>
-  <si>
-    <t>Identifies the conditions/problems/concerns/diagnoses/etc. whose management and/or mitigation are handled by this plan.</t>
-  </si>
-  <si>
-    <t>When the diagnosis is related to an allergy or intolerance, the Condition and AllergyIntolerance resources can both be used. However, to be actionable for decision support, using Condition alone is not sufficient as the allergy or intolerance condition needs to be represented as an AllergyIntolerance.</t>
-  </si>
-  <si>
-    <t>Links plan to the conditions it manages.  The element can identify risks addressed by the plan as well as active conditions.  (The Condition resource can include things like "at risk for hypertension" or "fall risk".)  Also scopes plans - multiple plans may exist addressing different concerns.</t>
-  </si>
-  <si>
-    <t>Request.reasonReference</t>
-  </si>
-  <si>
-    <t>.actRelationship[typeCode=SUBJ].target[classCode=CONC, moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>FiveWs.why[x]</t>
-  </si>
-  <si>
-    <t>PRB-4</t>
-  </si>
-  <si>
-    <t>CarePlan.supportingInfo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Resource)
-</t>
-  </si>
-  <si>
-    <t>Information considered as part of plan</t>
-  </si>
-  <si>
-    <t>Identifies portions of the patient's record that specifically influenced the formation of the plan.  These might include comorbidities, recent procedures, limitations, recent assessments, etc.</t>
-  </si>
-  <si>
-    <t>Use "concern" to identify specific conditions addressed by the care plan.</t>
-  </si>
-  <si>
-    <t>Identifies barriers and other considerations associated with the care plan.</t>
-  </si>
-  <si>
-    <t>Request.supportingInfo</t>
-  </si>
-  <si>
-    <t>CarePlan.goal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Goal)
-</t>
-  </si>
-  <si>
-    <t>Desired outcome of plan</t>
-  </si>
-  <si>
-    <t>Describes the intended objective(s) of carrying out the care plan.</t>
-  </si>
-  <si>
-    <t>Goal can be achieving a particular change or merely maintaining a current state or even slowing a decline.</t>
-  </si>
-  <si>
-    <t>Provides context for plan.  Allows plan effectiveness to be evaluated by clinicians.</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode&lt;=OBJ].</t>
-  </si>
-  <si>
-    <t>GOL.1</t>
-  </si>
-  <si>
-    <t>CarePlan.activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Action to occur as part of plan</t>
-  </si>
-  <si>
-    <t>Identifies a planned action to occur as part of the plan.  For example, a medication to be used, lab tests to perform, self-monitoring, education, etc.</t>
-  </si>
-  <si>
-    <t>Allows systems to prompt for performance of planned activities, and validate plans against best practice.</t>
-  </si>
-  <si>
-    <t>cpl-3:Provide a reference or detail, not both {detail.empty() or reference.empty()}
-ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
-  </si>
-  <si>
-    <t>{no mapping
-NOTE: This is a list of contained Request-Event tuples!}</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=COMP].target</t>
-  </si>
-  <si>
-    <t>CarePlan.activity.id</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>CarePlan.activity.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>CarePlan.activity.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>BackboneElement.modifierExtension</t>
-  </si>
-  <si>
-    <t>CarePlan.activity.outcomeCodeableConcept</t>
-  </si>
-  <si>
-    <t>Results of the activity</t>
-  </si>
-  <si>
-    <t>Identifies the outcome at the point when the status of the activity is assessed.  For example, the outcome of an education activity could be patient understands (or not).</t>
-  </si>
-  <si>
-    <t>Note that this should not duplicate the activity status (e.g. completed or in progress).</t>
-  </si>
-  <si>
-    <t>http://openhie.org/fhir/hiv-cbs/ValueSet/vs-careplan-outcome</t>
-  </si>
-  <si>
-    <t>CarePlan.activity.outcomeReference</t>
-  </si>
-  <si>
-    <t>Appointment, Encounter, Procedure, etc.</t>
-  </si>
-  <si>
-    <t>Details of the outcome or action resulting from the activity.  The reference to an "event" resource, such as Procedure or Encounter or Observation, is the result/outcome of the activity itself.  The activity can be conveyed using CarePlan.activity.detail OR using the CarePlan.activity.reference (a reference to a “request” resource).</t>
-  </si>
-  <si>
-    <t>The activity outcome is independent of the outcome of the related goal(s).  For example, if the goal is to achieve a target body weight of 150 lbs and an activity is defined to diet, then the activity outcome could be calories consumed whereas the goal outcome is an observation for the actual body weight measured.</t>
-  </si>
-  <si>
-    <t>Links plan to resulting actions.</t>
-  </si>
-  <si>
-    <t>{Event that is outcome of Request in activity.reference}</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=FLFS].source</t>
-  </si>
-  <si>
-    <t>CarePlan.activity.progress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annotation
-</t>
-  </si>
-  <si>
-    <t>Comments about the activity status/progress</t>
-  </si>
-  <si>
-    <t>Notes about the adherence/status/progress of the activity.</t>
-  </si>
-  <si>
-    <t>This element should NOT be used to describe the activity to be performed - that occurs either within the resource pointed to by activity.detail.reference or in activity.detail.description.</t>
-  </si>
-  <si>
-    <t>Can be used to capture information about adherence, progress, concerns, etc.</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code="annotation"].value</t>
-  </si>
-  <si>
-    <t>NTE?</t>
-  </si>
-  <si>
-    <t>CarePlan.activity.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Appointment|CommunicationRequest|DeviceRequest|MedicationRequest|NutritionOrder|Task|ServiceRequest|VisionPrescription|RequestGroup)
-</t>
-  </si>
-  <si>
-    <t>Activity details defined in specific resource</t>
-  </si>
-  <si>
-    <t>The details of the proposed activity represented in a specific resource.</t>
-  </si>
-  <si>
-    <t>Standard extension exists ([resource-pertainsToGoal](http://hl7.org/fhir/R4/extension-resource-pertainstogoal.html)) that allows goals to be referenced from any of the referenced resources in CarePlan.activity.reference.  -The goal should be visible when the resource referenced by CarePlan.activity.reference is viewed independently from the CarePlan.  Requests that are pointed to by a CarePlan using this element should *not* point to this CarePlan using the "basedOn" element.  i.e. Requests that are part of a CarePlan are not "based on" the CarePlan.</t>
-  </si>
-  <si>
-    <t>Details in a form consistent with other applications and contexts of use.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cpl-3
-</t>
-  </si>
-  <si>
-    <t>{Request that resulted in Event in activity.actionResulting}</t>
-  </si>
-  <si>
-    <t>CarePlan.activity.detail</t>
-  </si>
-  <si>
-    <t>In-line definition of activity</t>
-  </si>
-  <si>
-    <t>A simple summary of a planned activity suitable for a general care plan system (e.g. form driven) that doesn't know about specific resources such as procedure etc.</t>
-  </si>
-  <si>
-    <t>Details in a simple form for generic care plan systems.</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=COMP, subsetCode=SUMM].target</t>
-  </si>
-  <si>
-    <t>CarePlan.activity.detail.id</t>
-  </si>
-  <si>
-    <t>CarePlan.activity.detail.extension</t>
+    <t>ART Regimen Substituted</t>
+  </si>
+  <si>
+    <t>The ARV regimen has been substituded by a new ARV regimen.</t>
   </si>
   <si>
     <t>CarePlan.activity.detail.extension:artRegimenLine</t>
@@ -1845,7 +1867,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN64"/>
+  <dimension ref="A1:AN65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2820,11 +2842,11 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>79</v>
@@ -2839,15 +2861,17 @@
         <v>80</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>80</v>
@@ -2884,14 +2908,16 @@
         <v>80</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AC9" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD9" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>137</v>
@@ -2912,7 +2938,7 @@
         <v>80</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>80</v>
@@ -2926,41 +2952,43 @@
         <v>139</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="N10" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O10" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M10" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>80</v>
       </c>
@@ -3008,7 +3036,7 @@
         <v>80</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -3017,7 +3045,7 @@
         <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>138</v>
@@ -3026,7 +3054,7 @@
         <v>80</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>80</v>
@@ -3037,14 +3065,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -3057,25 +3085,25 @@
         <v>80</v>
       </c>
       <c r="I11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J11" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="J11" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="K11" t="s" s="2">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="L11" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="N11" t="s" s="2">
+      <c r="O11" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>80</v>
@@ -3124,7 +3152,7 @@
         <v>80</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -3136,27 +3164,27 @@
         <v>80</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>80</v>
+        <v>152</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>80</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3179,20 +3207,16 @@
         <v>88</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="O12" t="s" s="2">
         <v>157</v>
       </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>80</v>
       </c>
@@ -3240,7 +3264,7 @@
         <v>80</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -3261,18 +3285,18 @@
         <v>159</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>161</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3295,15 +3319,17 @@
         <v>88</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="N13" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="L13" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>80</v>
@@ -3352,7 +3378,7 @@
         <v>80</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -3367,10 +3393,10 @@
         <v>99</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>80</v>
@@ -3381,14 +3407,14 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>80</v>
+        <v>166</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3407,18 +3433,18 @@
         <v>88</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>101</v>
+        <v>167</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" s="2"/>
+      <c r="O14" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="N14" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>80</v>
       </c>
@@ -3466,7 +3492,7 @@
         <v>80</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -3481,10 +3507,10 @@
         <v>99</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>80</v>
@@ -3495,14 +3521,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3521,17 +3547,19 @@
         <v>88</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="N15" s="2"/>
-      <c r="O15" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>80</v>
@@ -3580,7 +3608,7 @@
         <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -3595,7 +3623,7 @@
         <v>99</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>80</v>
@@ -3609,14 +3637,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>181</v>
+        <v>80</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3635,20 +3663,18 @@
         <v>88</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="N16" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="M16" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>185</v>
-      </c>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>80</v>
       </c>
@@ -3696,7 +3722,7 @@
         <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -3711,7 +3737,7 @@
         <v>99</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>186</v>
+        <v>80</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>80</v>
@@ -3725,10 +3751,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3736,33 +3762,35 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>175</v>
+        <v>107</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="O17" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="P17" t="s" s="2">
         <v>80</v>
       </c>
@@ -3786,13 +3814,13 @@
         <v>80</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>80</v>
+        <v>188</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>80</v>
+        <v>185</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>80</v>
+        <v>189</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>80</v>
@@ -3810,13 +3838,13 @@
         <v>80</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>80</v>
@@ -3825,24 +3853,24 @@
         <v>99</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>80</v>
+        <v>191</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>80</v>
+        <v>192</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>80</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3868,16 +3896,16 @@
         <v>107</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>80</v>
@@ -3902,13 +3930,13 @@
         <v>80</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>80</v>
@@ -3926,7 +3954,7 @@
         <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>87</v>
@@ -3941,16 +3969,16 @@
         <v>99</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>199</v>
+        <v>80</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>201</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19">
@@ -3966,34 +3994,34 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>107</v>
+        <v>203</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>80</v>
@@ -4018,13 +4046,13 @@
         <v>80</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>80</v>
@@ -4045,10 +4073,10 @@
         <v>202</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>80</v>
@@ -4057,13 +4085,13 @@
         <v>99</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>209</v>
+        <v>80</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>80</v>
+        <v>211</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>80</v>
@@ -4071,10 +4099,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4085,7 +4113,7 @@
         <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>80</v>
@@ -4097,20 +4125,16 @@
         <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="O20" t="s" s="2">
         <v>215</v>
       </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>80</v>
       </c>
@@ -4134,13 +4158,13 @@
         <v>80</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>216</v>
+        <v>80</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>217</v>
+        <v>80</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>218</v>
+        <v>80</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>80</v>
@@ -4158,13 +4182,13 @@
         <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>80</v>
@@ -4179,7 +4203,7 @@
         <v>80</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>219</v>
+        <v>80</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>80</v>
@@ -4187,10 +4211,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4213,16 +4237,18 @@
         <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+      <c r="O21" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>80</v>
       </c>
@@ -4270,7 +4296,7 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -4291,7 +4317,7 @@
         <v>80</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>80</v>
+        <v>220</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>80</v>
@@ -4299,18 +4325,18 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>80</v>
+        <v>222</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>87</v>
@@ -4325,18 +4351,16 @@
         <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="M22" t="s" s="2">
-        <v>226</v>
-      </c>
       <c r="N22" s="2"/>
-      <c r="O22" t="s" s="2">
-        <v>227</v>
-      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>80</v>
       </c>
@@ -4384,10 +4408,10 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>87</v>
@@ -4399,28 +4423,28 @@
         <v>99</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>80</v>
+        <v>226</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>80</v>
+        <v>227</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>228</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>80</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4447,7 +4471,9 @@
       <c r="M23" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="N23" s="2"/>
+      <c r="N23" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>80</v>
@@ -4496,10 +4522,10 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>87</v>
@@ -4511,28 +4537,28 @@
         <v>99</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4551,18 +4577,20 @@
         <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="O24" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>80</v>
       </c>
@@ -4610,7 +4638,7 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4625,32 +4653,32 @@
         <v>99</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>87</v>
@@ -4665,20 +4693,16 @@
         <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>80</v>
       </c>
@@ -4726,7 +4750,7 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4741,16 +4765,16 @@
         <v>99</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>257</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26">
@@ -4762,7 +4786,7 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>259</v>
+        <v>80</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4781,15 +4805,17 @@
         <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>80</v>
@@ -4856,10 +4882,10 @@
         <v>263</v>
       </c>
       <c r="AL26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>80</v>
@@ -4867,10 +4893,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4881,7 +4907,7 @@
         <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>80</v>
@@ -4890,19 +4916,19 @@
         <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4952,13 +4978,13 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>80</v>
@@ -4967,13 +4993,13 @@
         <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>271</v>
+        <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>272</v>
+        <v>80</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>80</v>
@@ -4981,10 +5007,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5007,18 +5033,18 @@
         <v>80</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="O28" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>80</v>
       </c>
@@ -5066,7 +5092,7 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -5081,13 +5107,13 @@
         <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>80</v>
+        <v>274</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>80</v>
+        <v>275</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>80</v>
@@ -5095,10 +5121,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5118,18 +5144,20 @@
         <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>281</v>
       </c>
@@ -5180,7 +5208,7 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5198,21 +5226,21 @@
         <v>282</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>80</v>
+        <v>283</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>80</v>
+        <v>285</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5232,22 +5260,22 @@
         <v>80</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>80</v>
@@ -5296,7 +5324,7 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5311,24 +5339,24 @@
         <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>291</v>
+        <v>80</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>292</v>
+        <v>80</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>293</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5351,19 +5379,19 @@
         <v>80</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="N31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>80</v>
@@ -5412,7 +5440,7 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5427,16 +5455,16 @@
         <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>80</v>
       </c>
     </row>
     <row r="32">
@@ -5452,7 +5480,7 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>79</v>
@@ -5475,11 +5503,9 @@
       <c r="M32" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="N32" t="s" s="2">
+      <c r="N32" s="2"/>
+      <c r="O32" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>80</v>
@@ -5540,19 +5566,19 @@
         <v>80</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>99</v>
+        <v>306</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>80</v>
+        <v>307</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>308</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33">
@@ -5568,11 +5594,11 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G33" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G33" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H33" t="s" s="2">
         <v>80</v>
       </c>
@@ -5583,18 +5609,16 @@
         <v>80</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="M33" t="s" s="2">
-        <v>312</v>
-      </c>
       <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
-        <v>313</v>
-      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>80</v>
       </c>
@@ -5642,25 +5666,25 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>314</v>
+        <v>80</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>315</v>
+        <v>80</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>80</v>
@@ -5671,21 +5695,21 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>80</v>
@@ -5697,15 +5721,17 @@
         <v>80</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>221</v>
+        <v>133</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>318</v>
+        <v>134</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>80</v>
@@ -5754,25 +5780,25 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>80</v>
@@ -5783,14 +5809,14 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>146</v>
+        <v>318</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5803,24 +5829,26 @@
         <v>80</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="O35" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>80</v>
       </c>
@@ -5868,7 +5896,7 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5886,7 +5914,7 @@
         <v>80</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>321</v>
+        <v>130</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>80</v>
@@ -5897,14 +5925,14 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>327</v>
+        <v>80</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5917,26 +5945,24 @@
         <v>80</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>132</v>
+        <v>203</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>80</v>
       </c>
@@ -5960,13 +5986,11 @@
         <v>80</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="Y36" s="2"/>
       <c r="Z36" t="s" s="2">
-        <v>80</v>
+        <v>326</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>80</v>
@@ -5984,7 +6008,7 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5996,13 +6020,13 @@
         <v>80</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>80</v>
@@ -6013,10 +6037,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6039,18 +6063,20 @@
         <v>80</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>211</v>
+        <v>287</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>330</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>80</v>
       </c>
@@ -6074,11 +6100,13 @@
         <v>80</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="Y37" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Z37" t="s" s="2">
-        <v>335</v>
+        <v>80</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>80</v>
@@ -6096,7 +6124,7 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6111,10 +6139,10 @@
         <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>80</v>
+        <v>332</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>80</v>
+        <v>333</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>80</v>
@@ -6125,10 +6153,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6151,19 +6179,19 @@
         <v>80</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>295</v>
+        <v>335</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>80</v>
@@ -6212,7 +6240,7 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6227,24 +6255,24 @@
         <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN38" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>80</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6255,7 +6283,7 @@
         <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>80</v>
@@ -6267,19 +6295,19 @@
         <v>80</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="N39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>80</v>
@@ -6328,39 +6356,39 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>80</v>
+        <v>348</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>80</v>
+        <v>349</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>349</v>
+        <v>308</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>350</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6368,7 +6396,7 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>87</v>
@@ -6383,19 +6411,17 @@
         <v>80</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="N40" s="2"/>
+      <c r="O40" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>80</v>
@@ -6444,7 +6470,7 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6453,16 +6479,16 @@
         <v>87</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>358</v>
+        <v>80</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>316</v>
+        <v>354</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>80</v>
@@ -6473,10 +6499,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6484,7 +6510,7 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>87</v>
@@ -6499,18 +6525,16 @@
         <v>80</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="L41" t="s" s="2">
-        <v>360</v>
-      </c>
       <c r="M41" t="s" s="2">
-        <v>361</v>
+        <v>311</v>
       </c>
       <c r="N41" s="2"/>
-      <c r="O41" t="s" s="2">
-        <v>362</v>
-      </c>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>80</v>
       </c>
@@ -6558,7 +6582,7 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>359</v>
+        <v>312</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6567,16 +6591,16 @@
         <v>87</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>357</v>
+        <v>80</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>363</v>
+        <v>313</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>80</v>
@@ -6587,10 +6611,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6598,10 +6622,10 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>78</v>
+        <v>357</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>80</v>
@@ -6613,13 +6637,13 @@
         <v>80</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>221</v>
+        <v>133</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>318</v>
+        <v>358</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6658,37 +6682,35 @@
         <v>80</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="AC42" s="2"/>
       <c r="AD42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>80</v>
+        <v>361</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>321</v>
+        <v>80</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>80</v>
@@ -6699,12 +6721,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="C43" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="C43" t="s" s="2">
+        <v>363</v>
+      </c>
       <c r="D43" t="s" s="2">
         <v>80</v>
       </c>
@@ -6713,7 +6737,7 @@
         <v>87</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>80</v>
@@ -6725,13 +6749,13 @@
         <v>80</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>132</v>
+        <v>364</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>133</v>
+        <v>365</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>134</v>
+        <v>366</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6770,17 +6794,19 @@
         <v>80</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AC43" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6789,7 +6815,7 @@
         <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>80</v>
+        <v>367</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>138</v>
@@ -6809,13 +6835,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D44" t="s" s="2">
         <v>80</v>
@@ -6837,13 +6863,13 @@
         <v>80</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6894,7 +6920,7 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6903,7 +6929,7 @@
         <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>144</v>
+        <v>367</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>138</v>
@@ -6923,46 +6949,44 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="C45" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="C45" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="D45" t="s" s="2">
-        <v>327</v>
+        <v>80</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>132</v>
+        <v>375</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>328</v>
+        <v>376</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>80</v>
       </c>
@@ -7010,7 +7034,7 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7019,7 +7043,7 @@
         <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>80</v>
+        <v>367</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>138</v>
@@ -7028,7 +7052,7 @@
         <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>80</v>
@@ -7039,43 +7063,45 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>80</v>
+        <v>318</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>373</v>
+        <v>319</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O46" t="s" s="2">
-        <v>375</v>
+        <v>142</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>80</v>
@@ -7085,7 +7111,7 @@
         <v>80</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>376</v>
+        <v>80</v>
       </c>
       <c r="T46" t="s" s="2">
         <v>80</v>
@@ -7100,13 +7126,13 @@
         <v>80</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>196</v>
+        <v>80</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>377</v>
+        <v>80</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>378</v>
+        <v>80</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>80</v>
@@ -7124,25 +7150,25 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>372</v>
+        <v>321</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>379</v>
+        <v>130</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>80</v>
@@ -7153,10 +7179,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7167,7 +7193,7 @@
         <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>80</v>
@@ -7179,17 +7205,17 @@
         <v>80</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>80</v>
@@ -7199,7 +7225,7 @@
         <v>80</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>80</v>
+        <v>383</v>
       </c>
       <c r="T47" t="s" s="2">
         <v>80</v>
@@ -7214,13 +7240,13 @@
         <v>80</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>80</v>
+        <v>188</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>80</v>
+        <v>384</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>80</v>
+        <v>385</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>80</v>
@@ -7238,13 +7264,13 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>80</v>
@@ -7253,10 +7279,10 @@
         <v>99</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>167</v>
+        <v>386</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>80</v>
@@ -7267,10 +7293,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7293,19 +7319,17 @@
         <v>80</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>101</v>
+        <v>388</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>80</v>
@@ -7354,7 +7378,7 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7369,10 +7393,10 @@
         <v>99</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>80</v>
@@ -7383,10 +7407,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7397,7 +7421,7 @@
         <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>80</v>
@@ -7409,16 +7433,16 @@
         <v>80</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>211</v>
+        <v>101</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>387</v>
+        <v>161</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>389</v>
+        <v>163</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>390</v>
@@ -7446,35 +7470,37 @@
         <v>80</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="Y49" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Z49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF49" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="AA49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>386</v>
-      </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>80</v>
@@ -7483,24 +7509,24 @@
         <v>99</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>392</v>
+        <v>164</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>393</v>
+        <v>159</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>394</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7511,7 +7537,7 @@
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>80</v>
@@ -7523,18 +7549,20 @@
         <v>80</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="N50" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="N50" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>80</v>
       </c>
@@ -7558,13 +7586,11 @@
         <v>80</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>399</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="Y50" s="2"/>
       <c r="Z50" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>80</v>
@@ -7582,13 +7608,13 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>80</v>
@@ -7597,16 +7623,16 @@
         <v>99</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN50" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>80</v>
       </c>
     </row>
     <row r="51">
@@ -7637,16 +7663,16 @@
         <v>80</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7672,13 +7698,13 @@
         <v>80</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>80</v>
+        <v>208</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>80</v>
+        <v>406</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>80</v>
+        <v>407</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>80</v>
@@ -7711,7 +7737,7 @@
         <v>99</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>290</v>
+        <v>408</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>80</v>
@@ -7725,10 +7751,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7751,18 +7777,18 @@
         <v>80</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>302</v>
+        <v>410</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" t="s" s="2">
-        <v>410</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>80</v>
       </c>
@@ -7810,7 +7836,7 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7825,10 +7851,10 @@
         <v>99</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>80</v>
+        <v>282</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>307</v>
+        <v>80</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>80</v>
@@ -7839,10 +7865,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7850,34 +7876,32 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>107</v>
+        <v>294</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>414</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>80</v>
@@ -7902,13 +7926,13 @@
         <v>80</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>196</v>
+        <v>80</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>416</v>
+        <v>80</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>417</v>
+        <v>80</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>80</v>
@@ -7926,13 +7950,13 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>80</v>
@@ -7941,24 +7965,24 @@
         <v>99</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>418</v>
+        <v>80</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>419</v>
+        <v>299</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>420</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7966,7 +7990,7 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>87</v>
@@ -7975,24 +7999,26 @@
         <v>80</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>211</v>
+        <v>107</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="O54" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="M54" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>80</v>
       </c>
@@ -8016,13 +8042,13 @@
         <v>80</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>80</v>
+        <v>188</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>80</v>
+        <v>423</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>80</v>
+        <v>424</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>80</v>
@@ -8040,10 +8066,10 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>87</v>
@@ -8058,21 +8084,21 @@
         <v>425</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>80</v>
+        <v>426</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>80</v>
+        <v>427</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8089,76 +8115,72 @@
         <v>80</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>427</v>
+        <v>203</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="O55" s="2"/>
+      <c r="P55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF55" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="P55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q55" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="R55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8173,10 +8195,10 @@
         <v>99</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>434</v>
+        <v>80</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>80</v>
@@ -8187,10 +8209,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8207,28 +8229,32 @@
         <v>80</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="O56" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="N56" s="2"/>
-      <c r="O56" t="s" s="2">
+      <c r="P56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q56" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="P56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
         <v>80</v>
       </c>
@@ -8272,7 +8298,7 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8287,24 +8313,24 @@
         <v>99</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>254</v>
+        <v>440</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>255</v>
+        <v>441</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>440</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8327,17 +8353,15 @@
         <v>80</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="N57" t="s" s="2">
         <v>445</v>
       </c>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>446</v>
       </c>
@@ -8388,7 +8412,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8403,24 +8427,24 @@
         <v>99</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>80</v>
+        <v>246</v>
       </c>
       <c r="AL57" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN57" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>448</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8431,7 +8455,7 @@
         <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>80</v>
@@ -8443,19 +8467,19 @@
         <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="N58" t="s" s="2">
+      <c r="O58" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>80</v>
@@ -8504,13 +8528,13 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>80</v>
@@ -8519,24 +8543,24 @@
         <v>99</v>
       </c>
       <c r="AK58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL58" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="AL58" t="s" s="2">
+      <c r="AM58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN58" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>456</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8544,10 +8568,10 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>80</v>
@@ -8559,7 +8583,7 @@
         <v>80</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>211</v>
+        <v>457</v>
       </c>
       <c r="L59" t="s" s="2">
         <v>458</v>
@@ -8567,8 +8591,12 @@
       <c r="M59" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
+      <c r="N59" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>453</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>80</v>
       </c>
@@ -8592,35 +8620,37 @@
         <v>80</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>216</v>
+        <v>80</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>460</v>
+        <v>80</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>461</v>
+        <v>80</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="AC59" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>463</v>
+        <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>80</v>
@@ -8629,28 +8659,26 @@
         <v>99</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>80</v>
+        <v>461</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="C60" t="s" s="2">
-        <v>467</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
         <v>80</v>
       </c>
@@ -8671,13 +8699,13 @@
         <v>80</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8704,31 +8732,29 @@
         <v>80</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="AC60" s="2"/>
       <c r="AD60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>80</v>
+        <v>470</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -8746,29 +8772,31 @@
         <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>465</v>
+        <v>472</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="C61" s="2"/>
+        <v>464</v>
+      </c>
+      <c r="C61" t="s" s="2">
+        <v>474</v>
+      </c>
       <c r="D61" t="s" s="2">
-        <v>469</v>
+        <v>80</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>87</v>
@@ -8783,18 +8811,16 @@
         <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>470</v>
+        <v>203</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="N61" s="2"/>
-      <c r="O61" t="s" s="2">
-        <v>473</v>
-      </c>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>80</v>
       </c>
@@ -8818,13 +8844,13 @@
         <v>80</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>80</v>
+        <v>208</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>80</v>
+        <v>467</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>80</v>
+        <v>468</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>80</v>
@@ -8842,7 +8868,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -8860,25 +8886,25 @@
         <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>80</v>
+        <v>476</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -8897,16 +8923,18 @@
         <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>480</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>80</v>
       </c>
@@ -8954,7 +8982,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -8972,21 +9000,21 @@
         <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9009,13 +9037,13 @@
         <v>80</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>221</v>
+        <v>477</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9066,7 +9094,7 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9084,21 +9112,21 @@
         <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>350</v>
+        <v>487</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9121,18 +9149,16 @@
         <v>80</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>344</v>
+        <v>213</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="N64" s="2"/>
-      <c r="O64" t="s" s="2">
-        <v>488</v>
-      </c>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>80</v>
       </c>
@@ -9180,13 +9206,13 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>80</v>
@@ -9195,16 +9221,130 @@
         <v>99</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>489</v>
+        <v>80</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>349</v>
+        <v>491</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>350</v>
+        <v>341</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="P65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>341</v>
       </c>
     </row>
   </sheetData>

--- a/branches/ARVTreatment--FIG-58/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/ARVTreatment--FIG-58/StructureDefinition-hiv-arv-treatment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T11:03:16+00:00</t>
+    <t>2023-03-01T11:04:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ARVTreatment--FIG-58/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/ARVTreatment--FIG-58/StructureDefinition-hiv-arv-treatment.xlsx
@@ -9,11 +9,14 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$65</definedName>
+  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2387" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2387" uniqueCount="495">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T11:04:17+00:00</t>
+    <t>2023-03-01T11:23:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -969,10 +972,6 @@
     <t>Allows systems to prompt for performance of planned activities, and validate plans against best practice.</t>
   </si>
   <si>
-    <t>cpl-3:Provide a reference or detail, not both {detail.empty() or reference.empty()}
-ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
-  </si>
-  <si>
     <t>{no mapping
 NOTE: This is a list of contained Request-Event tuples!}</t>
   </si>
@@ -1128,9 +1127,6 @@
   </si>
   <si>
     <t>CarePlan.activity.detail.extension</t>
-  </si>
-  <si>
-    <t>3</t>
   </si>
   <si>
     <t>Extension</t>
@@ -1691,6 +1687,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -2039,7 +2050,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>30</v>
       </c>
@@ -2151,7 +2162,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>86</v>
       </c>
@@ -2265,7 +2276,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>94</v>
       </c>
@@ -2377,7 +2388,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>100</v>
       </c>
@@ -2491,7 +2502,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>106</v>
       </c>
@@ -2605,7 +2616,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>115</v>
       </c>
@@ -2719,7 +2730,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
         <v>123</v>
       </c>
@@ -2833,7 +2844,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
         <v>131</v>
       </c>
@@ -2947,7 +2958,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
         <v>139</v>
       </c>
@@ -3063,7 +3074,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>144</v>
       </c>
@@ -3179,7 +3190,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
         <v>154</v>
       </c>
@@ -3291,7 +3302,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
         <v>160</v>
       </c>
@@ -3405,7 +3416,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
         <v>165</v>
       </c>
@@ -3519,7 +3530,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
         <v>172</v>
       </c>
@@ -3635,7 +3646,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
         <v>179</v>
       </c>
@@ -3749,7 +3760,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
         <v>183</v>
       </c>
@@ -3865,7 +3876,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
         <v>194</v>
       </c>
@@ -3981,7 +3992,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
         <v>202</v>
       </c>
@@ -4097,7 +4108,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
         <v>212</v>
       </c>
@@ -4209,7 +4220,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
         <v>216</v>
       </c>
@@ -4323,7 +4334,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
         <v>221</v>
       </c>
@@ -4435,7 +4446,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
         <v>230</v>
       </c>
@@ -4549,7 +4560,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
         <v>239</v>
       </c>
@@ -4665,7 +4676,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
         <v>250</v>
       </c>
@@ -4777,7 +4788,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
         <v>258</v>
       </c>
@@ -4891,7 +4902,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
         <v>265</v>
       </c>
@@ -5005,7 +5016,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
         <v>269</v>
       </c>
@@ -5119,7 +5130,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
         <v>276</v>
       </c>
@@ -5235,7 +5246,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
         <v>286</v>
       </c>
@@ -5351,7 +5362,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
         <v>293</v>
       </c>
@@ -5467,7 +5478,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
         <v>301</v>
       </c>
@@ -5566,27 +5577,27 @@
         <v>80</v>
       </c>
       <c r="AJ32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AK32" t="s" s="2">
+      <c r="AL32" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN32" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" hidden="true">
+      <c r="A33" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="AM32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="2">
-        <v>309</v>
-      </c>
       <c r="B33" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5612,10 +5623,10 @@
         <v>213</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5666,7 +5677,7 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5684,21 +5695,21 @@
         <v>80</v>
       </c>
       <c r="AL33" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN33" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" hidden="true">
+      <c r="A34" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="AM33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="2">
-        <v>314</v>
-      </c>
       <c r="B34" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5727,7 +5738,7 @@
         <v>134</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N34" t="s" s="2">
         <v>136</v>
@@ -5780,7 +5791,7 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5798,7 +5809,7 @@
         <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>80</v>
@@ -5807,16 +5818,16 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5838,10 +5849,10 @@
         <v>133</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="N35" t="s" s="2">
         <v>136</v>
@@ -5896,7 +5907,7 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5923,12 +5934,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5954,13 +5965,13 @@
         <v>203</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5990,7 +6001,7 @@
       </c>
       <c r="Y36" s="2"/>
       <c r="Z36" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>80</v>
@@ -6008,7 +6019,7 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -6035,12 +6046,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6066,16 +6077,16 @@
         <v>287</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="N37" t="s" s="2">
+      <c r="O37" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>80</v>
@@ -6124,7 +6135,7 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6139,24 +6150,24 @@
         <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN37" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" hidden="true">
+      <c r="A38" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="AM37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="2">
-        <v>334</v>
-      </c>
       <c r="B38" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6179,19 +6190,19 @@
         <v>80</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>80</v>
@@ -6240,7 +6251,7 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6258,21 +6269,21 @@
         <v>80</v>
       </c>
       <c r="AL38" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN38" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="AM38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN38" t="s" s="2">
+    </row>
+    <row r="39" hidden="true">
+      <c r="A39" t="s" s="2">
         <v>341</v>
       </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="2">
-        <v>342</v>
-      </c>
       <c r="B39" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6295,19 +6306,19 @@
         <v>80</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="N39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>80</v>
@@ -6356,7 +6367,7 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6365,30 +6376,30 @@
         <v>87</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN39" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" hidden="true">
+      <c r="A40" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="AL39" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="2">
-        <v>350</v>
-      </c>
       <c r="B40" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6414,14 +6425,14 @@
         <v>302</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>80</v>
@@ -6470,7 +6481,7 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6479,30 +6490,30 @@
         <v>87</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL40" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN40" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" hidden="true">
+      <c r="A41" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="AM40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="2">
-        <v>355</v>
-      </c>
       <c r="B41" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6528,10 +6539,10 @@
         <v>213</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6582,7 +6593,7 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6600,7 +6611,7 @@
         <v>80</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>80</v>
@@ -6609,12 +6620,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6622,7 +6633,7 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>357</v>
+        <v>87</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>79</v>
@@ -6640,10 +6651,10 @@
         <v>133</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6682,17 +6693,17 @@
         <v>80</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AC42" s="2"/>
       <c r="AD42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6719,28 +6730,28 @@
         <v>80</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>80</v>
@@ -6749,13 +6760,13 @@
         <v>80</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6806,7 +6817,7 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6815,7 +6826,7 @@
         <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>138</v>
@@ -6833,28 +6844,28 @@
         <v>80</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>80</v>
@@ -6863,13 +6874,13 @@
         <v>80</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6920,7 +6931,7 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6929,7 +6940,7 @@
         <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>138</v>
@@ -6947,15 +6958,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>80</v>
@@ -6977,13 +6988,13 @@
         <v>80</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7034,7 +7045,7 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7043,7 +7054,7 @@
         <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>138</v>
@@ -7061,16 +7072,16 @@
         <v>80</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7092,10 +7103,10 @@
         <v>133</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="N46" t="s" s="2">
         <v>136</v>
@@ -7150,7 +7161,7 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7177,12 +7188,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7208,14 +7219,14 @@
         <v>107</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>80</v>
@@ -7225,7 +7236,7 @@
         <v>80</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="T47" t="s" s="2">
         <v>80</v>
@@ -7243,10 +7254,10 @@
         <v>188</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>80</v>
@@ -7264,7 +7275,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7282,7 +7293,7 @@
         <v>80</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>80</v>
@@ -7291,12 +7302,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7319,17 +7330,17 @@
         <v>80</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="L48" t="s" s="2">
         <v>156</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>80</v>
@@ -7378,7 +7389,7 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7405,12 +7416,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7439,13 +7450,13 @@
         <v>161</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="N49" t="s" s="2">
         <v>163</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>80</v>
@@ -7494,7 +7505,7 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7521,12 +7532,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7552,16 +7563,16 @@
         <v>203</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="N50" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>80</v>
@@ -7590,7 +7601,7 @@
       </c>
       <c r="Y50" s="2"/>
       <c r="Z50" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>80</v>
@@ -7608,7 +7619,7 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7623,24 +7634,24 @@
         <v>99</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN50" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="AL50" t="s" s="2">
+    </row>
+    <row r="51" hidden="true">
+      <c r="A51" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="AM50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="2">
-        <v>402</v>
-      </c>
       <c r="B51" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7666,13 +7677,13 @@
         <v>203</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="N51" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7701,10 +7712,10 @@
         <v>208</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>80</v>
@@ -7722,7 +7733,7 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7737,7 +7748,7 @@
         <v>99</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>80</v>
@@ -7749,12 +7760,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7777,16 +7788,16 @@
         <v>80</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7836,7 +7847,7 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7863,12 +7874,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7894,14 +7905,14 @@
         <v>294</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>80</v>
@@ -7950,7 +7961,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -7977,12 +7988,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8008,16 +8019,16 @@
         <v>107</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="N54" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="O54" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>80</v>
@@ -8045,10 +8056,10 @@
         <v>188</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>80</v>
@@ -8066,7 +8077,7 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>87</v>
@@ -8081,24 +8092,24 @@
         <v>99</v>
       </c>
       <c r="AK54" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN54" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="AL54" t="s" s="2">
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="AM54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="2">
-        <v>428</v>
-      </c>
       <c r="B55" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8124,13 +8135,13 @@
         <v>203</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="N55" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8180,7 +8191,7 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8195,7 +8206,7 @@
         <v>99</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>80</v>
@@ -8207,12 +8218,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8235,26 +8246,26 @@
         <v>80</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="O56" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="N56" t="s" s="2">
+      <c r="P56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q56" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="O56" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="P56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q56" t="s" s="2">
-        <v>439</v>
-      </c>
       <c r="R56" t="s" s="2">
         <v>80</v>
       </c>
@@ -8298,7 +8309,7 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8313,24 +8324,24 @@
         <v>99</v>
       </c>
       <c r="AK56" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="AL56" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="2">
-        <v>442</v>
-      </c>
       <c r="B57" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8353,17 +8364,17 @@
         <v>80</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
@@ -8412,7 +8423,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8436,15 +8447,15 @@
         <v>80</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8467,19 +8478,19 @@
         <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="O58" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>80</v>
@@ -8528,7 +8539,7 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8546,21 +8557,21 @@
         <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="AM58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="2">
-        <v>456</v>
-      </c>
       <c r="B59" t="s" s="2">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8583,19 +8594,19 @@
         <v>80</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="M59" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>460</v>
-      </c>
       <c r="O59" t="s" s="2">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>80</v>
@@ -8644,7 +8655,7 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8659,24 +8670,24 @@
         <v>99</v>
       </c>
       <c r="AK59" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN59" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="AL59" t="s" s="2">
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="AM59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="2">
-        <v>464</v>
-      </c>
       <c r="B60" t="s" s="2">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8702,10 +8713,10 @@
         <v>203</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8735,26 +8746,26 @@
         <v>208</v>
       </c>
       <c r="Y60" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB60" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="AC60" s="2"/>
       <c r="AD60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -8772,24 +8783,24 @@
         <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="AM60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN60" t="s" s="2">
+      <c r="B61" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="C61" t="s" s="2">
         <v>472</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="C61" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="D61" t="s" s="2">
         <v>80</v>
@@ -8814,10 +8825,10 @@
         <v>203</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8847,10 +8858,10 @@
         <v>208</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>80</v>
@@ -8868,7 +8879,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -8886,25 +8897,25 @@
         <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -8923,17 +8934,17 @@
         <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>80</v>
@@ -8982,7 +8993,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9000,21 +9011,21 @@
         <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="AM62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="2">
-        <v>483</v>
-      </c>
       <c r="B63" t="s" s="2">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9037,13 +9048,13 @@
         <v>80</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9094,7 +9105,7 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9112,21 +9123,21 @@
         <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="AM63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="2">
-        <v>488</v>
-      </c>
       <c r="B64" t="s" s="2">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9152,10 +9163,10 @@
         <v>213</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9206,7 +9217,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9224,21 +9235,21 @@
         <v>80</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9261,17 +9272,17 @@
         <v>80</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>80</v>
@@ -9320,7 +9331,7 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -9335,19 +9346,37 @@
         <v>99</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="AL65" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN65" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>341</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AN65">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI64">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/branches/ARVTreatment--FIG-58/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/ARVTreatment--FIG-58/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T11:23:11+00:00</t>
+    <t>2023-03-01T11:24:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ARVTreatment--FIG-58/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/ARVTreatment--FIG-58/StructureDefinition-hiv-arv-treatment.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$64</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2387" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2351" uniqueCount="490">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T11:24:18+00:00</t>
+    <t>2023-03-01T12:12:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1142,40 +1142,24 @@
     <t>open</t>
   </si>
   <si>
-    <t>CarePlan.activity.detail.extension:artRegimenSwitched</t>
-  </si>
-  <si>
-    <t>artRegimenSwitched</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://openhie.org/fhir/hiv-cbs/StructureDefinition/art-regimen-switched}
+    <t>CarePlan.activity.detail.extension:artRegimenSwitchedOrSubstituted</t>
+  </si>
+  <si>
+    <t>artRegimenSwitchedOrSubstituted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://openhie.org/fhir/hiv-cbs/StructureDefinition/art-regimen-switched-or-substituded}
 </t>
   </si>
   <si>
-    <t>ART Regimen Switched</t>
-  </si>
-  <si>
-    <t>The ARV regimen has been switched to a new ARV regimen.</t>
+    <t>ART Regimen Switched Or Substituted</t>
+  </si>
+  <si>
+    <t>The ARV regimen has been switched to a new ARV regimen or has been substituted by another ARV regimen.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
-  </si>
-  <si>
-    <t>CarePlan.activity.detail.extension:artRegimenSubstituded</t>
-  </si>
-  <si>
-    <t>artRegimenSubstituded</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://openhie.org/fhir/hiv-cbs/StructureDefinition/art-regimen-substituted}
-</t>
-  </si>
-  <si>
-    <t>ART Regimen Substituted</t>
-  </si>
-  <si>
-    <t>The ARV regimen has been substituded by a new ARV regimen.</t>
   </si>
   <si>
     <t>CarePlan.activity.detail.extension:artRegimenLine</t>
@@ -1878,7 +1862,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN65"/>
+  <dimension ref="A1:AN64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1887,9 +1871,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="56.40625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="64.3359375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="42.671875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="24.3359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="32.90625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -6859,13 +6843,13 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>80</v>
@@ -6963,41 +6947,43 @@
         <v>371</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="C45" t="s" s="2">
-        <v>372</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>80</v>
+        <v>317</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>373</v>
+        <v>133</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>374</v>
+        <v>318</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>80</v>
       </c>
@@ -7045,7 +7031,7 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7054,7 +7040,7 @@
         <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>365</v>
+        <v>80</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>138</v>
@@ -7063,7 +7049,7 @@
         <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>80</v>
@@ -7074,45 +7060,43 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>317</v>
+        <v>80</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>318</v>
+        <v>373</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>142</v>
+        <v>375</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>80</v>
@@ -7122,7 +7106,7 @@
         <v>80</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>80</v>
+        <v>376</v>
       </c>
       <c r="T46" t="s" s="2">
         <v>80</v>
@@ -7137,13 +7121,13 @@
         <v>80</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>80</v>
+        <v>188</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>80</v>
+        <v>377</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>80</v>
+        <v>378</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>80</v>
@@ -7161,25 +7145,25 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>320</v>
+        <v>372</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>130</v>
+        <v>379</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>80</v>
@@ -7190,10 +7174,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7204,7 +7188,7 @@
         <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>80</v>
@@ -7216,17 +7200,17 @@
         <v>80</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>107</v>
+        <v>381</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>378</v>
+        <v>156</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>80</v>
@@ -7236,7 +7220,7 @@
         <v>80</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>381</v>
+        <v>80</v>
       </c>
       <c r="T47" t="s" s="2">
         <v>80</v>
@@ -7251,13 +7235,13 @@
         <v>80</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>188</v>
+        <v>80</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>382</v>
+        <v>80</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>383</v>
+        <v>80</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>80</v>
@@ -7275,13 +7259,13 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>80</v>
@@ -7290,10 +7274,10 @@
         <v>99</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>80</v>
+        <v>158</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>384</v>
+        <v>159</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>80</v>
@@ -7304,10 +7288,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7330,17 +7314,19 @@
         <v>80</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>386</v>
+        <v>101</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>385</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="O48" t="s" s="2">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>80</v>
@@ -7389,7 +7375,7 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7404,7 +7390,7 @@
         <v>99</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>159</v>
@@ -7418,10 +7404,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7432,7 +7418,7 @@
         <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>80</v>
@@ -7444,19 +7430,19 @@
         <v>80</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>101</v>
+        <v>203</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>161</v>
+        <v>387</v>
       </c>
       <c r="M49" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="O49" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>80</v>
@@ -7481,13 +7467,11 @@
         <v>80</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="Y49" s="2"/>
       <c r="Z49" t="s" s="2">
-        <v>80</v>
+        <v>391</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>80</v>
@@ -7505,13 +7489,13 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>80</v>
@@ -7520,24 +7504,24 @@
         <v>99</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>164</v>
+        <v>392</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>159</v>
+        <v>393</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>80</v>
+        <v>394</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7548,7 +7532,7 @@
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>80</v>
@@ -7563,17 +7547,15 @@
         <v>203</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>395</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>80</v>
       </c>
@@ -7597,11 +7579,13 @@
         <v>80</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="Y50" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>399</v>
+      </c>
       <c r="Z50" t="s" s="2">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>80</v>
@@ -7619,13 +7603,13 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>80</v>
@@ -7634,24 +7618,24 @@
         <v>99</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>398</v>
+        <v>80</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>399</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7674,16 +7658,16 @@
         <v>80</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>203</v>
+        <v>403</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7709,13 +7693,13 @@
         <v>80</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>208</v>
+        <v>80</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>404</v>
+        <v>80</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>405</v>
+        <v>80</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>80</v>
@@ -7733,7 +7717,7 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7748,7 +7732,7 @@
         <v>99</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>406</v>
+        <v>282</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>80</v>
@@ -7788,18 +7772,18 @@
         <v>80</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" s="2"/>
+      <c r="O52" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="N52" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>80</v>
       </c>
@@ -7862,10 +7846,10 @@
         <v>99</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>282</v>
+        <v>80</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>80</v>
+        <v>299</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>80</v>
@@ -7876,10 +7860,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7887,30 +7871,32 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>294</v>
+        <v>107</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>415</v>
       </c>
@@ -7937,13 +7923,13 @@
         <v>80</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>80</v>
+        <v>188</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>80</v>
+        <v>416</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>80</v>
+        <v>417</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>80</v>
@@ -7961,13 +7947,13 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>80</v>
@@ -7976,24 +7962,24 @@
         <v>99</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>80</v>
+        <v>418</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>299</v>
+        <v>419</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>80</v>
+        <v>420</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8001,7 +7987,7 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>87</v>
@@ -8010,26 +7996,24 @@
         <v>80</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>107</v>
+        <v>203</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>420</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>80</v>
       </c>
@@ -8053,34 +8037,34 @@
         <v>80</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>188</v>
+        <v>80</v>
       </c>
       <c r="Y54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF54" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="Z54" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>416</v>
-      </c>
       <c r="AG54" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>87</v>
@@ -8092,16 +8076,16 @@
         <v>99</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>424</v>
+        <v>80</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>425</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" hidden="true">
@@ -8126,28 +8110,32 @@
         <v>80</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>203</v>
+        <v>427</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="O55" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>431</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>432</v>
+      </c>
       <c r="R55" t="s" s="2">
         <v>80</v>
       </c>
@@ -8206,10 +8194,10 @@
         <v>99</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>80</v>
+        <v>434</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>80</v>
@@ -8220,10 +8208,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8240,76 +8228,72 @@
         <v>80</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="N56" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="P56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF56" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="P56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q56" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="R56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8324,24 +8308,24 @@
         <v>99</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>438</v>
+        <v>246</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>439</v>
+        <v>247</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>80</v>
+        <v>440</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8364,17 +8348,19 @@
         <v>80</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>444</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>445</v>
+      </c>
       <c r="O57" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
@@ -8423,7 +8409,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8438,24 +8424,24 @@
         <v>99</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>246</v>
+        <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>247</v>
+        <v>447</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8466,7 +8452,7 @@
         <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>80</v>
@@ -8478,19 +8464,19 @@
         <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>80</v>
@@ -8539,13 +8525,13 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>80</v>
@@ -8554,24 +8540,24 @@
         <v>99</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>80</v>
+        <v>454</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8579,10 +8565,10 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>80</v>
@@ -8594,20 +8580,16 @@
         <v>80</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>455</v>
+        <v>203</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>451</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>80</v>
       </c>
@@ -8631,37 +8613,35 @@
         <v>80</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>80</v>
+        <v>208</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>80</v>
+        <v>460</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>80</v>
+        <v>461</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="AC59" s="2"/>
       <c r="AD59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>80</v>
+        <v>463</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>80</v>
@@ -8670,26 +8650,28 @@
         <v>99</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>459</v>
+        <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>461</v>
+        <v>465</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="C60" s="2"/>
+        <v>457</v>
+      </c>
+      <c r="C60" t="s" s="2">
+        <v>467</v>
+      </c>
       <c r="D60" t="s" s="2">
         <v>80</v>
       </c>
@@ -8713,10 +8695,10 @@
         <v>203</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8746,26 +8728,28 @@
         <v>208</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="AC60" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>468</v>
+        <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -8783,31 +8767,29 @@
         <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="C61" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>80</v>
+        <v>469</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>87</v>
@@ -8822,16 +8804,18 @@
         <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>203</v>
+        <v>470</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>473</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>80</v>
       </c>
@@ -8855,13 +8839,13 @@
         <v>80</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>208</v>
+        <v>80</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>465</v>
+        <v>80</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>466</v>
+        <v>80</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>80</v>
@@ -8879,7 +8863,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -8897,25 +8881,25 @@
         <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>470</v>
+        <v>475</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>474</v>
+        <v>80</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -8934,18 +8918,16 @@
         <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="N62" s="2"/>
-      <c r="O62" t="s" s="2">
-        <v>478</v>
-      </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>80</v>
       </c>
@@ -8993,7 +8975,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9048,7 +9030,7 @@
         <v>80</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>475</v>
+        <v>213</v>
       </c>
       <c r="L63" t="s" s="2">
         <v>482</v>
@@ -9129,15 +9111,15 @@
         <v>80</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>485</v>
+        <v>340</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9160,16 +9142,18 @@
         <v>80</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>213</v>
+        <v>334</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>80</v>
       </c>
@@ -9217,13 +9201,13 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>80</v>
@@ -9232,10 +9216,10 @@
         <v>99</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>80</v>
+        <v>489</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>489</v>
+        <v>339</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>80</v>
@@ -9244,122 +9228,8 @@
         <v>340</v>
       </c>
     </row>
-    <row r="65" hidden="true">
-      <c r="A65" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="C65" s="2"/>
-      <c r="D65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E65" s="2"/>
-      <c r="F65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="P65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q65" s="2"/>
-      <c r="R65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>340</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AN65">
+  <autoFilter ref="A1:AN64">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9369,7 +9239,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI64">
+  <conditionalFormatting sqref="A2:AI63">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/ARVTreatment--FIG-58/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/ARVTreatment--FIG-58/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T12:12:05+00:00</t>
+    <t>2023-03-01T12:13:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ARVTreatment--FIG-58/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/ARVTreatment--FIG-58/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T12:13:00+00:00</t>
+    <t>2023-03-01T12:21:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1148,7 +1148,7 @@
     <t>artRegimenSwitchedOrSubstituted</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://openhie.org/fhir/hiv-cbs/StructureDefinition/art-regimen-switched-or-substituded}
+    <t xml:space="preserve">Extension {http://openhie.org/fhir/hiv-cbs/StructureDefinition/art-regimen-switched-or-substituted}
 </t>
   </si>
   <si>

--- a/branches/ARVTreatment--FIG-58/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/ARVTreatment--FIG-58/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T12:21:15+00:00</t>
+    <t>2023-03-01T12:22:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
